--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED6F8DA-9886-454F-A893-11A09E799FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AC670A-DC6B-447F-A787-F065D00A68A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,12 +89,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,23 +121,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -145,9 +162,20 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -165,11 +193,27 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -178,9 +222,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -189,9 +233,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -200,9 +244,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -211,9 +255,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -222,9 +266,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -233,9 +277,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -244,24 +288,21 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -332,20 +373,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I101" headerRowDxfId="15" dataDxfId="5">
   <autoFilter ref="A1:I101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="組織単位ID" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="組織単位名" dataDxfId="16"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="パッケージバージョン" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="組織単位ID" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="組織単位名" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="パッケージバージョン" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名" dataDxfId="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -354,14 +395,14 @@
   <autoFilter ref="A1:G95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="組織単位名"/>
-    <tableColumn id="7" xr3:uid="{033D6500-B618-443C-8C6B-1AAE76D6107C}" name="プロセス名" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{033D6500-B618-443C-8C6B-1AAE76D6107C}" name="プロセス名" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="パッケージ名"/>
-    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="パッケージバージョン" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="プロセスID" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="パッケージバージョン" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="プロセスID" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -369,13 +410,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E80" totalsRowShown="0">
   <autoFilter ref="A1:E80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="組織単位ID" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="組織単位名" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="プロセスID" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="組織単位ID" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="組織単位名" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="プロセスID" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="プロセス名" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -642,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -662,128 +703,1135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I19" s="1" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -827,300 +1875,392 @@
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G5" s="1"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G7" s="1"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G8" s="1"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G9" s="1"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G10" s="1"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G11" s="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G13" s="1"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G14" s="1"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G15" s="1"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G95" s="1"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1161,7 +2301,7 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1170,394 +2310,394 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="E67" s="5"/>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="E69" s="5"/>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="E75" s="5"/>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="E79" s="5"/>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="E80" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616A61E3-6DAC-471F-9177-249E02E94407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CD15F2-D321-43E2-B1D5-2F3C8FAA141E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -225,7 +225,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="22">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -528,37 +528,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="5"/>
@@ -886,29 +855,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="組織単位ID" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="組織単位名" dataDxfId="19"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="パッケージバージョン" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="組織単位ID" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="組織単位名" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="パッケージバージョン" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G201" totalsRowShown="0">
-  <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="組織単位名" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{033D6500-B618-443C-8C6B-1AAE76D6107C}" name="プロセス名" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0">
+  <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="組織単位名" dataDxfId="10"/>
     <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="パッケージ名" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="パッケージバージョン" dataDxfId="7"/>
@@ -3457,7 +3425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3465,1835 +3433,1632 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
+      <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
+      <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
+      <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
+      <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
+      <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
+      <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
+      <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
+      <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
+      <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
+      <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
+      <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
+      <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
+      <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
+      <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
+      <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
+      <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
+      <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
+      <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
+      <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
+      <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
+      <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
+      <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
+      <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
+      <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
+      <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
+      <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
+      <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
+      <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
+      <c r="E124" s="4"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
+      <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
+      <c r="E126" s="4"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
+      <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
+      <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
+      <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
+      <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
+      <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
+      <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
+      <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
+      <c r="E134" s="4"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
+      <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
+      <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
+      <c r="E137" s="4"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
+      <c r="E138" s="4"/>
       <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
+      <c r="E139" s="4"/>
       <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
+      <c r="E140" s="4"/>
       <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
+      <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
+      <c r="E142" s="4"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
+      <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
+      <c r="E144" s="4"/>
       <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
+      <c r="E145" s="4"/>
       <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
+      <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
+      <c r="E147" s="4"/>
       <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
+      <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
+      <c r="E149" s="4"/>
       <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
+      <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
+      <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
+      <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
+      <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
+      <c r="E154" s="4"/>
       <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
+      <c r="E155" s="4"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
+      <c r="E156" s="4"/>
       <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
+      <c r="E157" s="4"/>
       <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
+      <c r="E158" s="4"/>
       <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
+      <c r="E159" s="4"/>
       <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
+      <c r="E160" s="4"/>
       <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
+      <c r="E161" s="4"/>
       <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
+      <c r="E162" s="4"/>
       <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
+      <c r="E163" s="4"/>
       <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
+      <c r="E164" s="4"/>
       <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
+      <c r="E165" s="4"/>
       <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
+      <c r="E166" s="4"/>
       <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
+      <c r="E167" s="4"/>
       <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
+      <c r="E168" s="4"/>
       <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
+      <c r="E169" s="4"/>
       <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
+      <c r="E170" s="4"/>
       <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
+      <c r="E171" s="4"/>
       <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
+      <c r="E172" s="4"/>
       <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
+      <c r="E173" s="4"/>
       <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
+      <c r="E174" s="4"/>
       <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
+      <c r="E175" s="4"/>
       <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
+      <c r="E176" s="4"/>
       <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
+      <c r="E177" s="4"/>
       <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
+      <c r="E178" s="4"/>
       <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
+      <c r="E179" s="4"/>
       <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
+      <c r="E180" s="4"/>
       <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
+      <c r="E181" s="4"/>
       <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
+      <c r="E182" s="4"/>
       <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
+      <c r="E183" s="4"/>
       <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
+      <c r="E184" s="4"/>
       <c r="F184" s="4"/>
-      <c r="G184" s="4"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
+      <c r="E185" s="4"/>
       <c r="F185" s="4"/>
-      <c r="G185" s="4"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
+      <c r="E186" s="4"/>
       <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
+      <c r="E187" s="4"/>
       <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
+      <c r="E188" s="4"/>
       <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
+      <c r="E189" s="4"/>
       <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
+      <c r="E190" s="4"/>
       <c r="F190" s="4"/>
-      <c r="G190" s="4"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
+      <c r="E191" s="4"/>
       <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
+      <c r="E192" s="4"/>
       <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
+      <c r="E193" s="4"/>
       <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
+      <c r="E194" s="4"/>
       <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
+      <c r="E195" s="4"/>
       <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
+      <c r="E196" s="4"/>
       <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
+      <c r="E197" s="4"/>
       <c r="F197" s="4"/>
-      <c r="G197" s="4"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
+      <c r="E198" s="4"/>
       <c r="F198" s="4"/>
-      <c r="G198" s="4"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
+      <c r="E199" s="10"/>
       <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="4"/>
       <c r="F200" s="4"/>
-      <c r="G200" s="4"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
-      <c r="E201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="4"/>
       <c r="F201" s="4"/>
-      <c r="G201" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CD15F2-D321-43E2-B1D5-2F3C8FAA141E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1CB5EB-AC5D-4DE1-9FC3-9F1FC9CD7155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>パッケージバージョン</t>
+  </si>
+  <si>
+    <t>利用中のパッケージバージョン</t>
+  </si>
+  <si>
+    <t>すべてのパッケージバージョン</t>
   </si>
 </sst>
 </file>
@@ -225,7 +231,34 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -855,18 +888,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="組織単位ID" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="組織単位名" dataDxfId="18"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="パッケージバージョン" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="組織単位ID" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="組織単位名" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="利用中のパッケージバージョン" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{28A52157-C010-4AAE-B206-8A7B818138C2}" name="すべてのパッケージバージョン" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -876,12 +910,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="組織単位名" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="パッケージ名" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="パッケージバージョン" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="プロセスID" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="組織単位名" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="パッケージ名" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="パッケージバージョン" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="プロセスID" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -891,11 +925,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="組織単位ID" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="組織単位名" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="プロセスID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="プロセス名" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="組織単位ID" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="組織単位名" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="プロセスID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="プロセス名" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1164,7 +1198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1178,12 +1212,11 @@
     <col min="4" max="4" width="26" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.81640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="32.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1203,16 +1236,19 @@
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1221,9 +1257,10 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1232,9 +1269,10 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1243,9 +1281,10 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1254,9 +1293,10 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1265,9 +1305,10 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1276,9 +1317,10 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1287,9 +1329,10 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1298,9 +1341,10 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1309,9 +1353,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1321,8 +1366,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1332,8 +1378,9 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1343,8 +1390,9 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1354,8 +1402,9 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1365,8 +1414,9 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1376,8 +1426,9 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1387,8 +1438,9 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1398,8 +1450,9 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1408,11 +1461,12 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1422,8 +1476,9 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1433,8 +1488,9 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1444,8 +1500,9 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1455,8 +1512,9 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1466,8 +1524,9 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1477,8 +1536,9 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1488,8 +1548,9 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1499,8 +1560,9 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1510,8 +1572,9 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1521,8 +1584,9 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1532,8 +1596,9 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1543,8 +1608,9 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1554,8 +1620,9 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1565,8 +1632,9 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1576,8 +1644,9 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1587,8 +1656,9 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1598,8 +1668,9 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1609,8 +1680,9 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1620,8 +1692,9 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1631,8 +1704,9 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1642,8 +1716,9 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1653,8 +1728,9 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1664,8 +1740,9 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1675,8 +1752,9 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1686,8 +1764,9 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1697,8 +1776,9 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1708,8 +1788,9 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1719,8 +1800,9 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1730,8 +1812,9 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1741,8 +1824,9 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1752,8 +1836,9 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1763,8 +1848,9 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1774,8 +1860,9 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1785,8 +1872,9 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1796,8 +1884,9 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1807,8 +1896,9 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1818,8 +1908,9 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1829,8 +1920,9 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1840,8 +1932,9 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1851,8 +1944,9 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1862,8 +1956,9 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1873,8 +1968,9 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1884,8 +1980,9 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1895,8 +1992,9 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1906,8 +2004,9 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1917,8 +2016,9 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1928,8 +2028,9 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1939,8 +2040,9 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1950,8 +2052,9 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1961,8 +2064,9 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1972,8 +2076,9 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1983,8 +2088,9 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1994,8 +2100,9 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2005,8 +2112,9 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2016,8 +2124,9 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2027,8 +2136,9 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2038,8 +2148,9 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2049,8 +2160,9 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2060,8 +2172,9 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2071,8 +2184,9 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2082,8 +2196,9 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2093,8 +2208,9 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2104,8 +2220,9 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2115,8 +2232,9 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2126,8 +2244,9 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2137,8 +2256,9 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2148,8 +2268,9 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2159,8 +2280,9 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2170,8 +2292,9 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2181,8 +2304,9 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2192,8 +2316,9 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2203,8 +2328,9 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2214,8 +2340,9 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2225,8 +2352,9 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2236,8 +2364,9 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2247,8 +2376,9 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2258,8 +2388,9 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J96" s="4"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2269,8 +2400,9 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J97" s="4"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2280,8 +2412,9 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J98" s="4"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2291,8 +2424,9 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2302,8 +2436,9 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J100" s="4"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2313,8 +2448,9 @@
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2324,8 +2460,9 @@
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2335,8 +2472,9 @@
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2346,8 +2484,9 @@
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2357,8 +2496,9 @@
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J105" s="4"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2368,8 +2508,9 @@
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2379,8 +2520,9 @@
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2390,8 +2532,9 @@
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2401,8 +2544,9 @@
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2412,8 +2556,9 @@
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2423,8 +2568,9 @@
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2434,8 +2580,9 @@
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J112" s="4"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2445,8 +2592,9 @@
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2456,8 +2604,9 @@
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2467,8 +2616,9 @@
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2478,8 +2628,9 @@
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2489,8 +2640,9 @@
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2500,8 +2652,9 @@
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J118" s="4"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2511,8 +2664,9 @@
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2522,8 +2676,9 @@
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J120" s="4"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2533,8 +2688,9 @@
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J121" s="4"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2544,8 +2700,9 @@
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J122" s="4"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2555,8 +2712,9 @@
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J123" s="4"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2566,8 +2724,9 @@
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J124" s="4"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2577,8 +2736,9 @@
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2588,8 +2748,9 @@
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2599,8 +2760,9 @@
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2610,8 +2772,9 @@
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J128" s="4"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2621,8 +2784,9 @@
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J129" s="4"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2632,8 +2796,9 @@
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J130" s="4"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -2643,8 +2808,9 @@
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J131" s="4"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -2654,8 +2820,9 @@
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -2665,8 +2832,9 @@
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -2676,8 +2844,9 @@
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J134" s="4"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -2687,8 +2856,9 @@
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -2698,8 +2868,9 @@
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J136" s="4"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -2709,8 +2880,9 @@
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J137" s="4"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -2720,8 +2892,9 @@
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J138" s="4"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -2731,8 +2904,9 @@
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J139" s="4"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -2742,8 +2916,9 @@
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J140" s="4"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -2753,8 +2928,9 @@
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J141" s="4"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -2764,8 +2940,9 @@
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J142" s="4"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -2775,8 +2952,9 @@
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J143" s="4"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -2786,8 +2964,9 @@
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J144" s="4"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -2797,8 +2976,9 @@
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J145" s="4"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -2808,8 +2988,9 @@
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J146" s="4"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -2819,8 +3000,9 @@
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J147" s="4"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -2830,8 +3012,9 @@
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J148" s="4"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -2841,8 +3024,9 @@
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J149" s="4"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -2852,8 +3036,9 @@
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J150" s="4"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -2863,8 +3048,9 @@
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J151" s="4"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -2874,8 +3060,9 @@
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J152" s="4"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -2885,8 +3072,9 @@
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J153" s="4"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -2896,8 +3084,9 @@
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J154" s="4"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -2907,8 +3096,9 @@
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J155" s="4"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -2918,8 +3108,9 @@
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J156" s="4"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -2929,8 +3120,9 @@
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J157" s="4"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -2940,8 +3132,9 @@
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J158" s="4"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -2951,8 +3144,9 @@
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J159" s="4"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -2962,8 +3156,9 @@
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J160" s="4"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -2973,8 +3168,9 @@
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J161" s="4"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -2984,8 +3180,9 @@
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J162" s="4"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -2995,8 +3192,9 @@
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J163" s="4"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -3006,8 +3204,9 @@
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J164" s="4"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -3017,8 +3216,9 @@
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J165" s="4"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -3028,8 +3228,9 @@
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J166" s="4"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -3039,8 +3240,9 @@
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J167" s="4"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -3050,8 +3252,9 @@
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J168" s="4"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -3061,8 +3264,9 @@
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J169" s="4"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -3072,8 +3276,9 @@
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J170" s="4"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -3083,8 +3288,9 @@
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J171" s="4"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -3094,8 +3300,9 @@
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J172" s="4"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -3105,8 +3312,9 @@
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J173" s="4"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -3116,8 +3324,9 @@
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J174" s="4"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -3127,8 +3336,9 @@
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J175" s="4"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -3138,8 +3348,9 @@
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J176" s="4"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -3149,8 +3360,9 @@
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J177" s="4"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -3160,8 +3372,9 @@
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J178" s="4"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -3171,8 +3384,9 @@
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J179" s="4"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -3182,8 +3396,9 @@
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J180" s="4"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -3193,8 +3408,9 @@
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J181" s="4"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -3204,8 +3420,9 @@
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J182" s="4"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -3215,8 +3432,9 @@
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J183" s="4"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -3226,8 +3444,9 @@
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J184" s="4"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -3237,8 +3456,9 @@
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J185" s="4"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -3248,8 +3468,9 @@
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J186" s="4"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -3259,8 +3480,9 @@
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J187" s="4"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -3270,8 +3492,9 @@
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J188" s="4"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -3281,8 +3504,9 @@
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J189" s="4"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -3292,8 +3516,9 @@
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J190" s="4"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -3303,8 +3528,9 @@
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J191" s="4"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -3314,8 +3540,9 @@
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J192" s="4"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -3325,8 +3552,9 @@
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J193" s="4"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -3336,8 +3564,9 @@
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J194" s="4"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -3347,8 +3576,9 @@
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J195" s="4"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -3358,8 +3588,9 @@
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J196" s="4"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -3369,8 +3600,9 @@
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J197" s="4"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -3380,8 +3612,9 @@
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J198" s="4"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -3391,8 +3624,9 @@
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
       <c r="I199" s="10"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J199" s="10"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -3402,8 +3636,9 @@
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J200" s="4"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -3413,6 +3648,7 @@
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
+      <c r="J201" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1CB5EB-AC5D-4DE1-9FC3-9F1FC9CD7155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377C125D-5606-42F9-8EF4-F9FF8DF29E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="取得" sheetId="4" r:id="rId1"/>
     <sheet name="作成" sheetId="1" r:id="rId2"/>
     <sheet name="削除" sheetId="2" r:id="rId3"/>
+    <sheet name="最新のパッケージ バージョンに更新" sheetId="6" r:id="rId4"/>
+    <sheet name="以前使用していたバージョンに戻す" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -231,7 +233,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="29">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -254,8 +256,167 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -663,6 +824,33 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
         <vertical style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </vertical>
@@ -888,19 +1076,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="組織単位ID" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="組織単位名" dataDxfId="19"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="利用中のパッケージバージョン" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{28A52157-C010-4AAE-B206-8A7B818138C2}" name="すべてのパッケージバージョン" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="組織単位ID" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="組織単位名" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="利用中のパッケージバージョン" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{28A52157-C010-4AAE-B206-8A7B818138C2}" name="すべてのパッケージバージョン" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -910,12 +1098,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="組織単位名" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="パッケージ名" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="パッケージバージョン" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="プロセスID" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="組織単位名" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="パッケージ名" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="パッケージバージョン" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="プロセスID" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -925,11 +1113,35 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="組織単位ID" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="組織単位名" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="プロセスID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="プロセス名" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="組織単位ID" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="組織単位名" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="プロセスID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="プロセス名" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1045FEDF-172F-4720-9E26-49EF40EA109F}" name="Table135" displayName="Table135" ref="A1:C201" totalsRowShown="0">
+  <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="5" xr3:uid="{81AA809F-A409-4197-BB00-D65FE09A319A}" name="組織単位名" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{DFE04D34-8DC1-4AB9-8498-7A40C755F215}" name="プロセス名" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{A9BC2CD4-7228-4E9F-A465-6ABB6552FD0A}" name="結果" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F1A924A-162A-45D9-B495-CDD515819095}" name="Table1356" displayName="Table1356" ref="A1:C201" totalsRowShown="0">
+  <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="5" xr3:uid="{9DC35CEB-17B8-403C-A5CC-B4EB3518D27C}" name="組織単位名" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B0A6D0B5-D273-4F55-B4B5-A7E6678A4ADF}" name="プロセス名" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7E499921-A650-4A49-A802-523080EF8F35}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6746,4 +6958,2072 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8985D55F-DC81-47E3-911B-87D1E28A85F1}">
+  <dimension ref="A1:C201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="5"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="5"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="5"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="5"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="5"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="5"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="5"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="5"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="5"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="5"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="5"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="5"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="5"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="5"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="5"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="5"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="5"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="5"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="5"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="5"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="5"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="5"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="5"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="5"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="5"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="5"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="5"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="5"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="5"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="5"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="5"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="5"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="5"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="5"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="5"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="5"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="4"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="4"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="4"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="4"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="4"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="4"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="4"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="4"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="4"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="4"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="4"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="4"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="4"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="4"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="4"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="4"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="4"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="4"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="4"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="4"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="4"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="4"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="4"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="4"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="4"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="4"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="4"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="4"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="4"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="4"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="4"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="4"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="4"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="4"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="4"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="4"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="4"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="4"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="4"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="4"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="4"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="4"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="4"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="4"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="4"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="4"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="4"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="4"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="4"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="4"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="4"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="4"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="4"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="4"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="4"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="4"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="4"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="4"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="4"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="4"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="4"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="4"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="4"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="4"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="4"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="4"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="4"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="4"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="4"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="4"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="4"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="4"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="4"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="11"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BDC9D8-1CEE-4858-B62A-B3B17739DA59}">
+  <dimension ref="A1:C201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="5"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="5"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="5"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="5"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="5"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="5"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="5"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="5"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="5"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="5"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="5"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="5"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="5"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="5"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="5"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="5"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="5"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="5"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="5"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="5"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="5"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="5"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="5"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="5"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="5"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="5"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="5"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="5"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="5"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="5"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="5"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="5"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="5"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="5"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="5"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="5"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="4"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="4"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="4"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="4"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="4"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="4"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="4"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="4"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="4"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="4"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="4"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="4"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="4"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="4"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="4"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="4"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="4"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="4"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="4"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="4"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="4"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="4"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="4"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="4"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="4"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="4"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="4"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="4"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="4"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="4"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="4"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="4"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="4"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="4"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="4"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="4"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="4"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="4"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="4"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="4"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="4"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="4"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="4"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="4"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="4"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="4"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="4"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="4"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="4"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="4"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="4"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="4"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="4"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="4"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="4"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="4"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="4"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="4"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="4"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="4"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="4"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="4"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="4"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="4"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="4"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="4"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="4"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="4"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="4"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="4"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="4"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="4"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="4"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="11"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377C125D-5606-42F9-8EF4-F9FF8DF29E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE63A771-B207-458A-B917-E5BE482D542B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1426,6 +1426,7 @@
     <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="32.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE63A771-B207-458A-B917-E5BE482D542B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A508CEA-C327-4BBB-9539-FE6B641BF479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3864,6 +3864,17 @@
       <c r="J201" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な組織単位ID" error="組織単位IDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{82AAA8B0-67B4-4B5A-A149-C19359201395}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なプロセスID" error="プロセスIDは0より大きい整数である必要があります。" sqref="C2:C1048576" xr:uid="{DB0557E6-B5AE-4B25-A702-B879623BA71D}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットグループID" error="ロボットグループIDは0より大きい整数である必要があります。" sqref="I2:I1048576" xr:uid="{96E30AEA-3478-400F-A7AE-000FE54BF08B}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -5511,6 +5522,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なプロセスID" error="プロセスIDは0より大きい整数である必要があります。" sqref="E2:E1048576" xr:uid="{ED5C98FB-DEB9-4411-897D-C0B1FE6EF182}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -6953,6 +6969,14 @@
       <c r="E201" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な組織単位ID" error="組織単位IDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{6A397A67-217B-4FA7-B0E7-F3486817EA36}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なプロセスID" error="プロセスIDは0より大きい整数である必要があります。" sqref="C2:C1048576" xr:uid="{ABEEFE8A-2BCC-4881-96AF-357CE8585892}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF086ED-A0C1-4412-83B5-5AE4FA6D024F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECEE0C8-0398-46ED-BC2C-4850FE6CBF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="作成" sheetId="1" r:id="rId2"/>
     <sheet name="削除" sheetId="2" r:id="rId3"/>
     <sheet name="最新のパッケージ バージョンに更新" sheetId="6" r:id="rId4"/>
-    <sheet name="以前使用していたバージョンに戻す" sheetId="7" r:id="rId5"/>
+    <sheet name="ひとつ前のバージョンに戻す" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -246,12 +246,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="38">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -680,24 +674,9 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -948,6 +927,27 @@
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -962,72 +962,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="27" dataDxfId="25" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="37" dataDxfId="36" totalsRowDxfId="35">
   <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダーID" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="36"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="利用中のパッケージバージョン" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{28A52157-C010-4AAE-B206-8A7B818138C2}" name="すべてのパッケージバージョン" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダーID" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="利用中のパッケージバージョン" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{28A52157-C010-4AAE-B206-8A7B818138C2}" name="すべてのパッケージバージョン" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フォルダー名" dataDxfId="24"/>
-    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="パッケージ名" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="パッケージバージョン" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="プロセスID" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フォルダー名" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="パッケージ名" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="パッケージバージョン" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="プロセスID" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="フォルダーID" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="フォルダー名" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="プロセスID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="プロセス名" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="フォルダーID" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="フォルダー名" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="プロセスID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="プロセス名" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1045FEDF-172F-4720-9E26-49EF40EA109F}" name="Table135" displayName="Table135" ref="A1:C201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1045FEDF-172F-4720-9E26-49EF40EA109F}" name="Table135" displayName="Table135" ref="A1:C201" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="5" xr3:uid="{81AA809F-A409-4197-BB00-D65FE09A319A}" name="フォルダー名" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{DFE04D34-8DC1-4AB9-8498-7A40C755F215}" name="プロセス名" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{A9BC2CD4-7228-4E9F-A465-6ABB6552FD0A}" name="結果" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{81AA809F-A409-4197-BB00-D65FE09A319A}" name="フォルダー名" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{DFE04D34-8DC1-4AB9-8498-7A40C755F215}" name="プロセス名" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{A9BC2CD4-7228-4E9F-A465-6ABB6552FD0A}" name="結果" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F1A924A-162A-45D9-B495-CDD515819095}" name="Table1356" displayName="Table1356" ref="A1:C201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F1A924A-162A-45D9-B495-CDD515819095}" name="Table1356" displayName="Table1356" ref="A1:C201" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="5" xr3:uid="{9DC35CEB-17B8-403C-A5CC-B4EB3518D27C}" name="フォルダー名" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B0A6D0B5-D273-4F55-B4B5-A7E6678A4ADF}" name="プロセス名" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{7E499921-A650-4A49-A802-523080EF8F35}" name="結果" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9DC35CEB-17B8-403C-A5CC-B4EB3518D27C}" name="フォルダー名" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B0A6D0B5-D273-4F55-B4B5-A7E6678A4ADF}" name="プロセス名" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7E499921-A650-4A49-A802-523080EF8F35}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECEE0C8-0398-46ED-BC2C-4850FE6CBF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E500173-81C7-42DB-B56E-AF2BA760E59A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="取得" sheetId="4" r:id="rId1"/>
     <sheet name="作成" sheetId="1" r:id="rId2"/>
     <sheet name="削除" sheetId="2" r:id="rId3"/>
-    <sheet name="最新のパッケージ バージョンに更新" sheetId="6" r:id="rId4"/>
-    <sheet name="ひとつ前のバージョンに戻す" sheetId="7" r:id="rId5"/>
+    <sheet name="最新のパッケージに更新" sheetId="6" r:id="rId4"/>
+    <sheet name="以前のパッケージにロールバック" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E500173-81C7-42DB-B56E-AF2BA760E59A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFC4F44-22D4-47A4-93CB-8EA640A1B11A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -245,7 +245,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -615,6 +615,33 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -962,32 +989,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="37" dataDxfId="36" totalsRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36">
   <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダーID" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="33"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="利用中のパッケージバージョン" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{28A52157-C010-4AAE-B206-8A7B818138C2}" name="すべてのパッケージバージョン" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダーID" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="利用中のパッケージバージョン" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{28A52157-C010-4AAE-B206-8A7B818138C2}" name="すべてのパッケージバージョン" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フォルダー名" dataDxfId="22"/>
-    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="パッケージ名" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="パッケージバージョン" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G201" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フォルダー名" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="パッケージ名" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{C15CA409-CAF4-476B-ADDC-F59378299283}" name="パッケージバージョン" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="プロセス名" dataDxfId="19"/>
     <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="プロセスID" dataDxfId="18"/>
     <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="17"/>
   </tableColumns>
@@ -3772,7 +3800,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3784,12 +3812,13 @@
     <col min="2" max="2" width="31.08984375" style="7" customWidth="1"/>
     <col min="3" max="3" width="31.90625" style="7" customWidth="1"/>
     <col min="4" max="4" width="24.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.54296875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="5"/>
+    <col min="5" max="5" width="28.90625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.7265625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3802,1617 +3831,1820 @@
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="3"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="3"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="1"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="3"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="3"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="1"/>
+      <c r="E54" s="3"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="1"/>
+      <c r="E55" s="3"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="3"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="1"/>
+      <c r="E57" s="3"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="3"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="1"/>
+      <c r="E59" s="3"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="1"/>
+      <c r="E60" s="3"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="1"/>
+      <c r="E61" s="3"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="1"/>
+      <c r="E62" s="3"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="1"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="1"/>
+      <c r="E64" s="3"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="1"/>
+      <c r="E65" s="3"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="1"/>
+      <c r="E66" s="3"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="1"/>
+      <c r="E67" s="3"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="3"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="1"/>
+      <c r="E69" s="3"/>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="1"/>
+      <c r="E70" s="3"/>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="1"/>
+      <c r="E71" s="3"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="1"/>
+      <c r="E72" s="3"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="1"/>
+      <c r="E73" s="3"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="1"/>
+      <c r="E74" s="3"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="1"/>
+      <c r="E75" s="3"/>
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="3"/>
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="1"/>
+      <c r="E77" s="3"/>
       <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="1"/>
+      <c r="E78" s="3"/>
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="1"/>
+      <c r="E79" s="3"/>
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="1"/>
+      <c r="E80" s="3"/>
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="1"/>
+      <c r="E81" s="3"/>
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="1"/>
+      <c r="E82" s="3"/>
       <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="1"/>
+      <c r="E83" s="3"/>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="1"/>
+      <c r="E84" s="3"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="1"/>
+      <c r="E85" s="3"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="1"/>
+      <c r="E86" s="3"/>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="1"/>
+      <c r="E87" s="3"/>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="1"/>
+      <c r="E88" s="3"/>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="1"/>
+      <c r="E89" s="3"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="3"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="3"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="3"/>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="1"/>
+      <c r="E93" s="3"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="1"/>
+      <c r="E94" s="3"/>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="1"/>
+      <c r="E95" s="3"/>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="1"/>
+      <c r="E96" s="2"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="1"/>
+      <c r="E97" s="2"/>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="1"/>
+      <c r="E98" s="2"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="1"/>
+      <c r="E99" s="2"/>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="1"/>
+      <c r="E100" s="2"/>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="1"/>
+      <c r="E101" s="2"/>
       <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="1"/>
+      <c r="E102" s="2"/>
       <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="1"/>
+      <c r="E103" s="2"/>
       <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="1"/>
+      <c r="E104" s="2"/>
       <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="1"/>
+      <c r="E105" s="2"/>
       <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="1"/>
+      <c r="E106" s="2"/>
       <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="1"/>
+      <c r="E107" s="2"/>
       <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="1"/>
+      <c r="E108" s="2"/>
       <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="1"/>
+      <c r="E109" s="2"/>
       <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="1"/>
+      <c r="E110" s="2"/>
       <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="1"/>
+      <c r="E111" s="2"/>
       <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="1"/>
+      <c r="E112" s="2"/>
       <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="1"/>
+      <c r="E113" s="2"/>
       <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="1"/>
+      <c r="E114" s="2"/>
       <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="1"/>
+      <c r="E115" s="2"/>
       <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="1"/>
+      <c r="E116" s="2"/>
       <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="1"/>
+      <c r="E117" s="2"/>
       <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="1"/>
+      <c r="E118" s="2"/>
       <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="1"/>
+      <c r="E119" s="2"/>
       <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="1"/>
+      <c r="E120" s="2"/>
       <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="1"/>
+      <c r="E121" s="2"/>
       <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="1"/>
+      <c r="E122" s="2"/>
       <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="1"/>
+      <c r="E123" s="2"/>
       <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="1"/>
+      <c r="E124" s="2"/>
       <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="1"/>
+      <c r="E125" s="2"/>
       <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="1"/>
+      <c r="E126" s="2"/>
       <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="1"/>
+      <c r="E127" s="2"/>
       <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="1"/>
+      <c r="E128" s="2"/>
       <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="1"/>
+      <c r="E129" s="2"/>
       <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="1"/>
+      <c r="E130" s="2"/>
       <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="1"/>
+      <c r="E131" s="2"/>
       <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
-      <c r="E132" s="1"/>
+      <c r="E132" s="2"/>
       <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
-      <c r="E133" s="1"/>
+      <c r="E133" s="2"/>
       <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
-      <c r="E134" s="1"/>
+      <c r="E134" s="2"/>
       <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
-      <c r="E135" s="1"/>
+      <c r="E135" s="2"/>
       <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="1"/>
+      <c r="E136" s="2"/>
       <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="1"/>
+      <c r="E137" s="2"/>
       <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="1"/>
+      <c r="E138" s="2"/>
       <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="1"/>
+      <c r="E139" s="2"/>
       <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="1"/>
+      <c r="E140" s="2"/>
       <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
-      <c r="E141" s="1"/>
+      <c r="E141" s="2"/>
       <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="1"/>
+      <c r="E142" s="2"/>
       <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="1"/>
+      <c r="E143" s="2"/>
       <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
-      <c r="E144" s="1"/>
+      <c r="E144" s="2"/>
       <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="1"/>
+      <c r="E145" s="2"/>
       <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
-      <c r="E146" s="1"/>
+      <c r="E146" s="2"/>
       <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
-      <c r="E147" s="1"/>
+      <c r="E147" s="2"/>
       <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
-      <c r="E148" s="1"/>
+      <c r="E148" s="2"/>
       <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
-      <c r="E149" s="1"/>
+      <c r="E149" s="2"/>
       <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
-      <c r="E150" s="1"/>
+      <c r="E150" s="2"/>
       <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
-      <c r="E151" s="1"/>
+      <c r="E151" s="2"/>
       <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
-      <c r="E152" s="1"/>
+      <c r="E152" s="2"/>
       <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
-      <c r="E153" s="1"/>
+      <c r="E153" s="2"/>
       <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
-      <c r="E154" s="1"/>
+      <c r="E154" s="2"/>
       <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
-      <c r="E155" s="1"/>
+      <c r="E155" s="2"/>
       <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
-      <c r="E156" s="1"/>
+      <c r="E156" s="2"/>
       <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
-      <c r="E157" s="1"/>
+      <c r="E157" s="2"/>
       <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
-      <c r="E158" s="1"/>
+      <c r="E158" s="2"/>
       <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
-      <c r="E159" s="1"/>
+      <c r="E159" s="2"/>
       <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
-      <c r="E160" s="1"/>
+      <c r="E160" s="2"/>
       <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
-      <c r="E161" s="1"/>
+      <c r="E161" s="2"/>
       <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
-      <c r="E162" s="1"/>
+      <c r="E162" s="2"/>
       <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
-      <c r="E163" s="1"/>
+      <c r="E163" s="2"/>
       <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
-      <c r="E164" s="1"/>
+      <c r="E164" s="2"/>
       <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
-      <c r="E165" s="1"/>
+      <c r="E165" s="2"/>
       <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
-      <c r="E166" s="1"/>
+      <c r="E166" s="2"/>
       <c r="F166" s="1"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
-      <c r="E167" s="1"/>
+      <c r="E167" s="2"/>
       <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
-      <c r="E168" s="1"/>
+      <c r="E168" s="2"/>
       <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
-      <c r="E169" s="1"/>
+      <c r="E169" s="2"/>
       <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
-      <c r="E170" s="1"/>
+      <c r="E170" s="2"/>
       <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
-      <c r="E171" s="1"/>
+      <c r="E171" s="2"/>
       <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
-      <c r="E172" s="1"/>
+      <c r="E172" s="2"/>
       <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
-      <c r="E173" s="1"/>
+      <c r="E173" s="2"/>
       <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
-      <c r="E174" s="1"/>
+      <c r="E174" s="2"/>
       <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
-      <c r="E175" s="1"/>
+      <c r="E175" s="2"/>
       <c r="F175" s="1"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
-      <c r="E176" s="1"/>
+      <c r="E176" s="2"/>
       <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
-      <c r="E177" s="1"/>
+      <c r="E177" s="2"/>
       <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
-      <c r="E178" s="1"/>
+      <c r="E178" s="2"/>
       <c r="F178" s="1"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
-      <c r="E179" s="1"/>
+      <c r="E179" s="2"/>
       <c r="F179" s="1"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
-      <c r="E180" s="1"/>
+      <c r="E180" s="2"/>
       <c r="F180" s="1"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
-      <c r="E181" s="1"/>
+      <c r="E181" s="2"/>
       <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
-      <c r="E182" s="1"/>
+      <c r="E182" s="2"/>
       <c r="F182" s="1"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
-      <c r="E183" s="1"/>
+      <c r="E183" s="2"/>
       <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
-      <c r="E184" s="1"/>
+      <c r="E184" s="2"/>
       <c r="F184" s="1"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
-      <c r="E185" s="1"/>
+      <c r="E185" s="2"/>
       <c r="F185" s="1"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
-      <c r="E186" s="1"/>
+      <c r="E186" s="2"/>
       <c r="F186" s="1"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
-      <c r="E187" s="1"/>
+      <c r="E187" s="2"/>
       <c r="F187" s="1"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
-      <c r="E188" s="1"/>
+      <c r="E188" s="2"/>
       <c r="F188" s="1"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
-      <c r="E189" s="1"/>
+      <c r="E189" s="2"/>
       <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
-      <c r="E190" s="1"/>
+      <c r="E190" s="2"/>
       <c r="F190" s="1"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
-      <c r="E191" s="1"/>
+      <c r="E191" s="2"/>
       <c r="F191" s="1"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
-      <c r="E192" s="1"/>
+      <c r="E192" s="2"/>
       <c r="F192" s="1"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
-      <c r="E193" s="1"/>
+      <c r="E193" s="2"/>
       <c r="F193" s="1"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
-      <c r="E194" s="1"/>
+      <c r="E194" s="2"/>
       <c r="F194" s="1"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
-      <c r="E195" s="1"/>
+      <c r="E195" s="2"/>
       <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
-      <c r="E196" s="1"/>
+      <c r="E196" s="2"/>
       <c r="F196" s="1"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
-      <c r="E197" s="1"/>
+      <c r="E197" s="2"/>
       <c r="F197" s="1"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G197" s="1"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
-      <c r="E198" s="1"/>
+      <c r="E198" s="2"/>
       <c r="F198" s="1"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
-      <c r="E199" s="6"/>
+      <c r="E199" s="2"/>
       <c r="F199" s="6"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G199" s="6"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
-      <c r="E200" s="1"/>
+      <c r="E200" s="3"/>
       <c r="F200" s="1"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
       <c r="D201" s="10"/>
-      <c r="E201" s="1"/>
+      <c r="E201" s="10"/>
       <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なプロセスID" error="プロセスIDは0より大きい整数である必要があります。" sqref="E2:E1048576" xr:uid="{ED5C98FB-DEB9-4411-897D-C0B1FE6EF182}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なプロセスID" error="プロセスIDは0より大きい整数である必要があります。" sqref="E202:E1048576 F2:F201" xr:uid="{ED5C98FB-DEB9-4411-897D-C0B1FE6EF182}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFC4F44-22D4-47A4-93CB-8EA640A1B11A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56DD2E8-56AB-465C-90E6-BB36A72D295E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1332,15 +1332,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.36328125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.6328125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="45.6328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="25.6328125" style="7" customWidth="1"/>
     <col min="7" max="8" width="32.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.08984375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25.6328125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" style="5" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
@@ -3808,13 +3808,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.08984375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="31.90625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.90625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7265625" style="5" customWidth="1"/>
+    <col min="1" max="5" width="25.6328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="45.6328125" style="5" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
@@ -5666,11 +5662,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.54296875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="43.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="45.6328125" style="5" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
@@ -7118,9 +7114,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="30.36328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="43.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" style="5" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
@@ -8154,9 +8150,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.90625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="43.453125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" style="5" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56DD2E8-56AB-465C-90E6-BB36A72D295E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DCC517-80DC-4135-8AFF-ED3DD4F8E7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -1332,13 +1332,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6328125" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.6328125" style="7" customWidth="1"/>
     <col min="4" max="4" width="25.6328125" style="7" customWidth="1"/>
     <col min="5" max="5" width="45.6328125" style="7" customWidth="1"/>
     <col min="6" max="6" width="25.6328125" style="7" customWidth="1"/>
-    <col min="7" max="8" width="32.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="36.54296875" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.6328125" style="7" customWidth="1"/>
     <col min="10" max="10" width="25.6328125" style="5" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="5"/>
@@ -5662,7 +5662,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6328125" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.6328125" style="7" customWidth="1"/>
     <col min="4" max="4" width="25.6328125" style="5" customWidth="1"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DCC517-80DC-4135-8AFF-ED3DD4F8E7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D68565-8A37-43E4-BEFF-BCE3F48F43DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3808,7 +3808,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="25.6328125" style="7" customWidth="1"/>
+    <col min="1" max="3" width="25.6328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" style="7" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" style="5" customWidth="1"/>
     <col min="7" max="7" width="45.6328125" style="5" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="5"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4652272B-0871-43E4-882D-A44D17567229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F167FB6-383E-4F3A-84BC-795462D2FF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1880" windowWidth="29640" windowHeight="15630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58740" yWindow="1140" windowWidth="28800" windowHeight="11265" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -58,6 +58,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>説明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>プロセスキー</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -71,6 +75,10 @@
   </si>
   <si>
     <t>すべてのパッケージバージョン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力引数</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -99,6 +107,14 @@
   </si>
   <si>
     <t>プロセス名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入力引数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -311,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -357,11 +373,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="37">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -712,6 +729,28 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="5"/>
@@ -879,6 +918,33 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
@@ -975,6 +1041,33 @@
         <horizontal style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -1175,33 +1268,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="32" dataDxfId="30" totalsRowDxfId="28" headerRowBorderDxfId="31" tableBorderDxfId="29">
-  <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダーID" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="26"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{28E2D641-5340-4113-9F6E-D4863AB65C09}" name="利用中のパッケージバージョン" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="すべてのパッケージバージョン" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:L201" headerRowDxfId="36" dataDxfId="34" totalsRowDxfId="32" headerRowBorderDxfId="35" tableBorderDxfId="33">
+  <autoFilter ref="A1:L201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダーID" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{B6687083-5003-478E-AAED-DE2CA3FDF2A7}" name="説明" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{28E2D641-5340-4113-9F6E-D4863AB65C09}" name="利用中のパッケージバージョン" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="すべてのパッケージバージョン" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{BF67D0B5-60F7-4CEE-BD11-F0107B63513B}" name="入力引数" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G201" totalsRowShown="0">
-  <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フォルダー名" dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="パッケージ名" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{055E46AB-EFDA-4315-B5B2-4B84235C38F4}" name="パッケージバージョン" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="プロセス名" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0">
+  <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フォルダー名" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="パッケージ名" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{055E46AB-EFDA-4315-B5B2-4B84235C38F4}" name="パッケージバージョン" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="プロセス名" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{D19AE82E-DF2B-4BB7-9C7A-9FF78AC9F61B}" name="説明" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{453F806F-ED57-460D-9946-08207735D4E0}" name="入力引数" dataDxfId="13"/>
     <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="プロセスID" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="11"/>
   </tableColumns>
@@ -1510,7 +1607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1521,16 +1618,16 @@
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="17" customWidth="1"/>
     <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="45.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.75" style="17" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.75" style="17" customWidth="1"/>
+    <col min="4" max="5" width="25.75" style="17" customWidth="1"/>
+    <col min="6" max="6" width="45.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="17" customWidth="1"/>
     <col min="9" max="9" width="25.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.75" style="20" customWidth="1"/>
+    <col min="10" max="11" width="25.75" style="17" customWidth="1"/>
+    <col min="12" max="12" width="25.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.75" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1552,17 +1649,24 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1572,9 +1676,12 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="18"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1584,9 +1691,12 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="18"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1596,9 +1706,12 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="18"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1608,9 +1721,12 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="18"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1620,9 +1736,12 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="18"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1632,9 +1751,12 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="18"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1644,9 +1766,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="18"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1656,9 +1781,12 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="18"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1668,2301 +1796,2877 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="18"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="8"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="18"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="18"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="18"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="6"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="18"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="6"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="18"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="6"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="18"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="6"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="18"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7"/>
       <c r="B18" s="6"/>
       <c r="C18" s="8"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7"/>
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="18" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7"/>
       <c r="B20" s="6"/>
       <c r="C20" s="8"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="6"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="18"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7"/>
       <c r="B21" s="6"/>
       <c r="C21" s="8"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="6"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="18"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7"/>
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="6"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="18"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7"/>
       <c r="B23" s="6"/>
       <c r="C23" s="8"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="6"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="18"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7"/>
       <c r="B24" s="6"/>
       <c r="C24" s="8"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" s="6"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="18"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="8"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="6"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="18"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="8"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="6"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="18"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="8"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27" s="6"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="18"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="8"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="6"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="18"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="8"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" s="6"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="18"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="8"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30" s="6"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="18"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="8"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31" s="6"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="18"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="8"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32" s="6"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="18"/>
+      <c r="M32"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="8"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33" s="6"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="18"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7"/>
       <c r="B34" s="6"/>
       <c r="C34" s="8"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34" s="6"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="18"/>
+      <c r="M34"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7"/>
       <c r="B35" s="6"/>
       <c r="C35" s="8"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" s="6"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="18"/>
+      <c r="M35"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7"/>
       <c r="B36" s="6"/>
       <c r="C36" s="8"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E36" s="6"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="18"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7"/>
       <c r="B37" s="6"/>
       <c r="C37" s="8"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E37" s="6"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="18"/>
+      <c r="M37"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7"/>
       <c r="B38" s="6"/>
       <c r="C38" s="8"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38" s="6"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="18"/>
+      <c r="M38"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7"/>
       <c r="B39" s="6"/>
       <c r="C39" s="8"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39" s="6"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="18"/>
+      <c r="M39"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="8"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E40" s="6"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="18"/>
+      <c r="M40"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7"/>
       <c r="B41" s="6"/>
       <c r="C41" s="8"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41" s="6"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="18"/>
+      <c r="M41"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7"/>
       <c r="B42" s="6"/>
       <c r="C42" s="8"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E42" s="6"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="18"/>
+      <c r="M42"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7"/>
       <c r="B43" s="6"/>
       <c r="C43" s="8"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E43" s="6"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="18"/>
+      <c r="M43"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7"/>
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E44" s="6"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="18"/>
+      <c r="M44"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7"/>
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E45" s="6"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="18"/>
+      <c r="M45"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7"/>
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="18"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E46" s="6"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="18"/>
+      <c r="M46"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7"/>
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E47" s="6"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="18"/>
+      <c r="M47"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7"/>
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E48" s="6"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="18"/>
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7"/>
       <c r="B49" s="6"/>
       <c r="C49" s="8"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49" s="6"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="18"/>
+      <c r="M49"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7"/>
       <c r="B50" s="6"/>
       <c r="C50" s="8"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E50" s="6"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="18"/>
+      <c r="M50"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7"/>
       <c r="B51" s="6"/>
       <c r="C51" s="8"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="18"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E51" s="6"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="18"/>
+      <c r="M51"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7"/>
       <c r="B52" s="6"/>
       <c r="C52" s="8"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="18"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E52" s="6"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="18"/>
+      <c r="M52"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7"/>
       <c r="B53" s="6"/>
       <c r="C53" s="8"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="18"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E53" s="6"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="18"/>
+      <c r="M53"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7"/>
       <c r="B54" s="6"/>
       <c r="C54" s="8"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="18"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E54" s="6"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="18"/>
+      <c r="M54"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7"/>
       <c r="B55" s="6"/>
       <c r="C55" s="8"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="18"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E55" s="6"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="18"/>
+      <c r="M55"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7"/>
       <c r="B56" s="6"/>
       <c r="C56" s="8"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="18"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E56" s="6"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="18"/>
+      <c r="M56"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7"/>
       <c r="B57" s="6"/>
       <c r="C57" s="8"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="18"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E57" s="6"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="18"/>
+      <c r="M57"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7"/>
       <c r="B58" s="6"/>
       <c r="C58" s="8"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="18"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E58" s="6"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="18"/>
+      <c r="M58"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7"/>
       <c r="B59" s="6"/>
       <c r="C59" s="8"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="18"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E59" s="6"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="18"/>
+      <c r="M59"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7"/>
       <c r="B60" s="6"/>
       <c r="C60" s="8"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="18"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E60" s="6"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="18"/>
+      <c r="M60"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7"/>
       <c r="B61" s="6"/>
       <c r="C61" s="8"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="18"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E61" s="6"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="18"/>
+      <c r="M61"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7"/>
       <c r="B62" s="6"/>
       <c r="C62" s="8"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="18"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E62" s="6"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="18"/>
+      <c r="M62"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7"/>
       <c r="B63" s="6"/>
       <c r="C63" s="8"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="18"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E63" s="6"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="18"/>
+      <c r="M63"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7"/>
       <c r="B64" s="6"/>
       <c r="C64" s="8"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="18"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E64" s="6"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="18"/>
+      <c r="M64"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7"/>
       <c r="B65" s="6"/>
       <c r="C65" s="8"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="18"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65" s="6"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="18"/>
+      <c r="M65"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7"/>
       <c r="B66" s="6"/>
       <c r="C66" s="8"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="18"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E66" s="6"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="18"/>
+      <c r="M66"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7"/>
       <c r="B67" s="6"/>
       <c r="C67" s="8"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="18"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E67" s="6"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="18"/>
+      <c r="M67"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7"/>
       <c r="B68" s="6"/>
       <c r="C68" s="8"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="18"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E68" s="6"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="18"/>
+      <c r="M68"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7"/>
       <c r="B69" s="6"/>
       <c r="C69" s="8"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="18"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E69" s="6"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="18"/>
+      <c r="M69"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="7"/>
       <c r="B70" s="6"/>
       <c r="C70" s="8"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="18"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E70" s="6"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="18"/>
+      <c r="M70"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="7"/>
       <c r="B71" s="6"/>
       <c r="C71" s="8"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="18"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E71" s="6"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="18"/>
+      <c r="M71"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="7"/>
       <c r="B72" s="6"/>
       <c r="C72" s="8"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="18"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E72" s="6"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="18"/>
+      <c r="M72"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7"/>
       <c r="B73" s="6"/>
       <c r="C73" s="8"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="18"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E73" s="6"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="18"/>
+      <c r="M73"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7"/>
       <c r="B74" s="6"/>
       <c r="C74" s="8"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="18"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E74" s="6"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="18"/>
+      <c r="M74"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7"/>
       <c r="B75" s="6"/>
       <c r="C75" s="8"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="18"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E75" s="6"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="18"/>
+      <c r="M75"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7"/>
       <c r="B76" s="6"/>
       <c r="C76" s="8"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="18"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E76" s="6"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="18"/>
+      <c r="M76"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7"/>
       <c r="B77" s="6"/>
       <c r="C77" s="8"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="18"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E77" s="6"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="18"/>
+      <c r="M77"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="7"/>
       <c r="B78" s="6"/>
       <c r="C78" s="8"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="18"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E78" s="6"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="18"/>
+      <c r="M78"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="7"/>
       <c r="B79" s="6"/>
       <c r="C79" s="8"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="18"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E79" s="6"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="18"/>
+      <c r="M79"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="7"/>
       <c r="B80" s="6"/>
       <c r="C80" s="8"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="18"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E80" s="6"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="18"/>
+      <c r="M80"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="7"/>
       <c r="B81" s="6"/>
       <c r="C81" s="8"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="18"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81" s="6"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="18"/>
+      <c r="M81"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7"/>
       <c r="B82" s="6"/>
       <c r="C82" s="8"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="18"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E82" s="6"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="18"/>
+      <c r="M82"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7"/>
       <c r="B83" s="6"/>
       <c r="C83" s="8"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="18"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E83" s="6"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="18"/>
+      <c r="M83"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7"/>
       <c r="B84" s="6"/>
       <c r="C84" s="8"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="18"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E84" s="6"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="18"/>
+      <c r="M84"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="7"/>
       <c r="B85" s="6"/>
       <c r="C85" s="8"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="18"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E85" s="6"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="18"/>
+      <c r="M85"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="7"/>
       <c r="B86" s="6"/>
       <c r="C86" s="8"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="18"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E86" s="6"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="18"/>
+      <c r="M86"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="7"/>
       <c r="B87" s="6"/>
       <c r="C87" s="8"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="18"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E87" s="6"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="18"/>
+      <c r="M87"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7"/>
       <c r="B88" s="6"/>
       <c r="C88" s="8"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="18"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E88" s="6"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="18"/>
+      <c r="M88"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="7"/>
       <c r="B89" s="6"/>
       <c r="C89" s="8"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="18"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E89" s="6"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="18"/>
+      <c r="M89"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7"/>
       <c r="B90" s="6"/>
       <c r="C90" s="8"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="18"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E90" s="6"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="18"/>
+      <c r="M90"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="7"/>
       <c r="B91" s="6"/>
       <c r="C91" s="8"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="18"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E91" s="6"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="18"/>
+      <c r="M91"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="7"/>
       <c r="B92" s="6"/>
       <c r="C92" s="8"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="18"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E92" s="6"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="18"/>
+      <c r="M92"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="7"/>
       <c r="B93" s="6"/>
       <c r="C93" s="8"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="18"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E93" s="6"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="18"/>
+      <c r="M93"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="7"/>
       <c r="B94" s="6"/>
       <c r="C94" s="8"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="18"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E94" s="6"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="18"/>
+      <c r="M94"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="7"/>
       <c r="B95" s="6"/>
       <c r="C95" s="8"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="18"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E95" s="6"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="18"/>
+      <c r="M95"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="7"/>
       <c r="B96" s="6"/>
       <c r="C96" s="8"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="18"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E96" s="6"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="18"/>
+      <c r="M96"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="7"/>
       <c r="B97" s="6"/>
       <c r="C97" s="8"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="18"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E97" s="6"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="18"/>
+      <c r="M97"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="7"/>
       <c r="B98" s="6"/>
       <c r="C98" s="8"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="18"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98" s="6"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="18"/>
+      <c r="M98"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="7"/>
       <c r="B99" s="6"/>
       <c r="C99" s="8"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="18"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E99" s="6"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="18"/>
+      <c r="M99"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="7"/>
       <c r="B100" s="6"/>
       <c r="C100" s="8"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="18"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E100" s="6"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="18"/>
+      <c r="M100"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="7"/>
       <c r="B101" s="6"/>
       <c r="C101" s="8"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="18"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E101" s="6"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="18"/>
+      <c r="M101"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="7"/>
       <c r="B102" s="6"/>
       <c r="C102" s="8"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="18"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E102" s="6"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="18"/>
+      <c r="M102"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="7"/>
       <c r="B103" s="6"/>
       <c r="C103" s="8"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="18"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E103" s="6"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="18"/>
+      <c r="M103"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="7"/>
       <c r="B104" s="6"/>
       <c r="C104" s="8"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="18"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E104" s="6"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="18"/>
+      <c r="M104"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="7"/>
       <c r="B105" s="6"/>
       <c r="C105" s="8"/>
       <c r="D105" s="6"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="18"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E105" s="6"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="18"/>
+      <c r="M105"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="7"/>
       <c r="B106" s="6"/>
       <c r="C106" s="8"/>
       <c r="D106" s="6"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="18"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E106" s="6"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="18"/>
+      <c r="M106"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="7"/>
       <c r="B107" s="6"/>
       <c r="C107" s="8"/>
       <c r="D107" s="6"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="18"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E107" s="6"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="18"/>
+      <c r="M107"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="7"/>
       <c r="B108" s="6"/>
       <c r="C108" s="8"/>
       <c r="D108" s="6"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="18"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E108" s="6"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="18"/>
+      <c r="M108"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="7"/>
       <c r="B109" s="6"/>
       <c r="C109" s="8"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="18"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E109" s="6"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="18"/>
+      <c r="M109"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="7"/>
       <c r="B110" s="6"/>
       <c r="C110" s="8"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="18"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E110" s="6"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="18"/>
+      <c r="M110"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="7"/>
       <c r="B111" s="6"/>
       <c r="C111" s="8"/>
       <c r="D111" s="6"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="18"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E111" s="6"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="18"/>
+      <c r="M111"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="7"/>
       <c r="B112" s="6"/>
       <c r="C112" s="8"/>
       <c r="D112" s="6"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="18"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E112" s="6"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="18"/>
+      <c r="M112"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="7"/>
       <c r="B113" s="6"/>
       <c r="C113" s="8"/>
       <c r="D113" s="6"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="18"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E113" s="6"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="18"/>
+      <c r="M113"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="7"/>
       <c r="B114" s="6"/>
       <c r="C114" s="8"/>
       <c r="D114" s="6"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="18"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114" s="6"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="18"/>
+      <c r="M114"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="7"/>
       <c r="B115" s="6"/>
       <c r="C115" s="8"/>
       <c r="D115" s="6"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="18"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E115" s="6"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="18"/>
+      <c r="M115"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="7"/>
       <c r="B116" s="6"/>
       <c r="C116" s="8"/>
       <c r="D116" s="6"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="18"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E116" s="6"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="18"/>
+      <c r="M116"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="7"/>
       <c r="B117" s="6"/>
       <c r="C117" s="8"/>
       <c r="D117" s="6"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="18"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E117" s="6"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="18"/>
+      <c r="M117"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="7"/>
       <c r="B118" s="6"/>
       <c r="C118" s="8"/>
       <c r="D118" s="6"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="18"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E118" s="6"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="18"/>
+      <c r="M118"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="7"/>
       <c r="B119" s="6"/>
       <c r="C119" s="8"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="18"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E119" s="6"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="18"/>
+      <c r="M119"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="7"/>
       <c r="B120" s="6"/>
       <c r="C120" s="8"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="18"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E120" s="6"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="18"/>
+      <c r="M120"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="7"/>
       <c r="B121" s="6"/>
       <c r="C121" s="8"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="18"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E121" s="6"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="18"/>
+      <c r="M121"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="7"/>
       <c r="B122" s="6"/>
       <c r="C122" s="8"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="18"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E122" s="6"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="18"/>
+      <c r="M122"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="7"/>
       <c r="B123" s="6"/>
       <c r="C123" s="8"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="18"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E123" s="6"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="18"/>
+      <c r="M123"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="7"/>
       <c r="B124" s="6"/>
       <c r="C124" s="8"/>
       <c r="D124" s="6"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="18"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E124" s="6"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="18"/>
+      <c r="M124"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="7"/>
       <c r="B125" s="6"/>
       <c r="C125" s="8"/>
       <c r="D125" s="6"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="18"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E125" s="6"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="18"/>
+      <c r="M125"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="7"/>
       <c r="B126" s="6"/>
       <c r="C126" s="8"/>
       <c r="D126" s="6"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="18"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E126" s="6"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="18"/>
+      <c r="M126"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="7"/>
       <c r="B127" s="6"/>
       <c r="C127" s="8"/>
       <c r="D127" s="6"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="18"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E127" s="6"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="18"/>
+      <c r="M127"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="7"/>
       <c r="B128" s="6"/>
       <c r="C128" s="8"/>
       <c r="D128" s="6"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="18"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E128" s="6"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="18"/>
+      <c r="M128"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="7"/>
       <c r="B129" s="6"/>
       <c r="C129" s="8"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="8"/>
-      <c r="J129" s="18"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E129" s="6"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="18"/>
+      <c r="M129"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="7"/>
       <c r="B130" s="6"/>
       <c r="C130" s="8"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="18"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E130" s="6"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="18"/>
+      <c r="M130"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="7"/>
       <c r="B131" s="6"/>
       <c r="C131" s="8"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="18"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131" s="6"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="18"/>
+      <c r="M131"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="7"/>
       <c r="B132" s="6"/>
       <c r="C132" s="8"/>
       <c r="D132" s="6"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="18"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E132" s="6"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="18"/>
+      <c r="M132"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="7"/>
       <c r="B133" s="6"/>
       <c r="C133" s="8"/>
       <c r="D133" s="6"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="18"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E133" s="6"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="18"/>
+      <c r="M133"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="7"/>
       <c r="B134" s="6"/>
       <c r="C134" s="8"/>
       <c r="D134" s="6"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="18"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E134" s="6"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="18"/>
+      <c r="M134"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="7"/>
       <c r="B135" s="6"/>
       <c r="C135" s="8"/>
       <c r="D135" s="6"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="18"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E135" s="6"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="18"/>
+      <c r="M135"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="7"/>
       <c r="B136" s="6"/>
       <c r="C136" s="8"/>
       <c r="D136" s="6"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="18"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E136" s="6"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="18"/>
+      <c r="M136"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="7"/>
       <c r="B137" s="6"/>
       <c r="C137" s="8"/>
       <c r="D137" s="6"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="18"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E137" s="6"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="18"/>
+      <c r="M137"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="7"/>
       <c r="B138" s="6"/>
       <c r="C138" s="8"/>
       <c r="D138" s="6"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="8"/>
-      <c r="J138" s="18"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E138" s="6"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="18"/>
+      <c r="M138"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="7"/>
       <c r="B139" s="6"/>
       <c r="C139" s="8"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="18"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E139" s="6"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="18"/>
+      <c r="M139"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="7"/>
       <c r="B140" s="6"/>
       <c r="C140" s="8"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="18"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E140" s="6"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="18"/>
+      <c r="M140"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="7"/>
       <c r="B141" s="6"/>
       <c r="C141" s="8"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="18"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E141" s="6"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="18"/>
+      <c r="M141"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="7"/>
       <c r="B142" s="6"/>
       <c r="C142" s="8"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="18"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E142" s="6"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="18"/>
+      <c r="M142"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="7"/>
       <c r="B143" s="6"/>
       <c r="C143" s="8"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="18"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E143" s="6"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="18"/>
+      <c r="M143"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="7"/>
       <c r="B144" s="6"/>
       <c r="C144" s="8"/>
       <c r="D144" s="6"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="18"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E144" s="6"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="18"/>
+      <c r="M144"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="7"/>
       <c r="B145" s="6"/>
       <c r="C145" s="8"/>
       <c r="D145" s="6"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="18"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E145" s="6"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="18"/>
+      <c r="M145"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="7"/>
       <c r="B146" s="6"/>
       <c r="C146" s="8"/>
       <c r="D146" s="6"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="18"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E146" s="6"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="18"/>
+      <c r="M146"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="7"/>
       <c r="B147" s="6"/>
       <c r="C147" s="8"/>
       <c r="D147" s="6"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="8"/>
-      <c r="J147" s="18"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147" s="6"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="18"/>
+      <c r="M147"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="7"/>
       <c r="B148" s="6"/>
       <c r="C148" s="8"/>
       <c r="D148" s="6"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="8"/>
-      <c r="J148" s="18"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E148" s="6"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="18"/>
+      <c r="M148"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="7"/>
       <c r="B149" s="6"/>
       <c r="C149" s="8"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="8"/>
-      <c r="J149" s="18"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E149" s="6"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="18"/>
+      <c r="M149"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="7"/>
       <c r="B150" s="6"/>
       <c r="C150" s="8"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="8"/>
-      <c r="J150" s="18"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E150" s="6"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="18"/>
+      <c r="M150"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="7"/>
       <c r="B151" s="6"/>
       <c r="C151" s="8"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="18"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E151" s="6"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="18"/>
+      <c r="M151"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="7"/>
       <c r="B152" s="6"/>
       <c r="C152" s="8"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="8"/>
-      <c r="J152" s="18"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E152" s="6"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="18"/>
+      <c r="M152"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="7"/>
       <c r="B153" s="6"/>
       <c r="C153" s="8"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="8"/>
-      <c r="J153" s="18"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E153" s="6"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="18"/>
+      <c r="M153"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="7"/>
       <c r="B154" s="6"/>
       <c r="C154" s="8"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="8"/>
-      <c r="J154" s="18"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E154" s="6"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="8"/>
+      <c r="L154" s="18"/>
+      <c r="M154"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="7"/>
       <c r="B155" s="6"/>
       <c r="C155" s="8"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="8"/>
-      <c r="J155" s="18"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E155" s="6"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="18"/>
+      <c r="M155"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="7"/>
       <c r="B156" s="6"/>
       <c r="C156" s="8"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="8"/>
-      <c r="J156" s="18"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E156" s="6"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="8"/>
+      <c r="L156" s="18"/>
+      <c r="M156"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="7"/>
       <c r="B157" s="6"/>
       <c r="C157" s="8"/>
       <c r="D157" s="6"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="8"/>
-      <c r="J157" s="18"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E157" s="6"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="8"/>
+      <c r="L157" s="18"/>
+      <c r="M157"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="7"/>
       <c r="B158" s="6"/>
       <c r="C158" s="8"/>
       <c r="D158" s="6"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="8"/>
-      <c r="J158" s="18"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E158" s="6"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="18"/>
+      <c r="M158"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="7"/>
       <c r="B159" s="6"/>
       <c r="C159" s="8"/>
       <c r="D159" s="6"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="8"/>
-      <c r="J159" s="18"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E159" s="6"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="18"/>
+      <c r="M159"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="7"/>
       <c r="B160" s="6"/>
       <c r="C160" s="8"/>
       <c r="D160" s="6"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="18"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E160" s="6"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="18"/>
+      <c r="M160"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="7"/>
       <c r="B161" s="6"/>
       <c r="C161" s="8"/>
       <c r="D161" s="6"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="18"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E161" s="6"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="18"/>
+      <c r="M161"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="7"/>
       <c r="B162" s="6"/>
       <c r="C162" s="8"/>
       <c r="D162" s="6"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="18"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E162" s="6"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="18"/>
+      <c r="M162"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="7"/>
       <c r="B163" s="6"/>
       <c r="C163" s="8"/>
       <c r="D163" s="6"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="6"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="18"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163" s="6"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="18"/>
+      <c r="M163"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="7"/>
       <c r="B164" s="6"/>
       <c r="C164" s="8"/>
       <c r="D164" s="6"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="18"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E164" s="6"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="18"/>
+      <c r="M164"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="7"/>
       <c r="B165" s="6"/>
       <c r="C165" s="8"/>
       <c r="D165" s="6"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="6"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="6"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="18"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E165" s="6"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="8"/>
+      <c r="L165" s="18"/>
+      <c r="M165"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="7"/>
       <c r="B166" s="6"/>
       <c r="C166" s="8"/>
       <c r="D166" s="6"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="6"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="18"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E166" s="6"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="8"/>
+      <c r="L166" s="18"/>
+      <c r="M166"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="7"/>
       <c r="B167" s="6"/>
       <c r="C167" s="8"/>
       <c r="D167" s="6"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="18"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E167" s="6"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="8"/>
+      <c r="L167" s="18"/>
+      <c r="M167"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="7"/>
       <c r="B168" s="6"/>
       <c r="C168" s="8"/>
       <c r="D168" s="6"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="8"/>
-      <c r="J168" s="18"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E168" s="6"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="8"/>
+      <c r="L168" s="18"/>
+      <c r="M168"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="7"/>
       <c r="B169" s="6"/>
       <c r="C169" s="8"/>
       <c r="D169" s="6"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="8"/>
-      <c r="J169" s="18"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E169" s="6"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="8"/>
+      <c r="L169" s="18"/>
+      <c r="M169"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="7"/>
       <c r="B170" s="6"/>
       <c r="C170" s="8"/>
       <c r="D170" s="6"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="8"/>
-      <c r="J170" s="18"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E170" s="6"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="8"/>
+      <c r="L170" s="18"/>
+      <c r="M170"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="7"/>
       <c r="B171" s="6"/>
       <c r="C171" s="8"/>
       <c r="D171" s="6"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="6"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="18"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E171" s="6"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="8"/>
+      <c r="L171" s="18"/>
+      <c r="M171"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="7"/>
       <c r="B172" s="6"/>
       <c r="C172" s="8"/>
       <c r="D172" s="6"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="6"/>
-      <c r="I172" s="8"/>
-      <c r="J172" s="18"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E172" s="6"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="8"/>
+      <c r="L172" s="18"/>
+      <c r="M172"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="7"/>
       <c r="B173" s="6"/>
       <c r="C173" s="8"/>
       <c r="D173" s="6"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="8"/>
-      <c r="H173" s="6"/>
-      <c r="I173" s="8"/>
-      <c r="J173" s="18"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E173" s="6"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="8"/>
+      <c r="L173" s="18"/>
+      <c r="M173"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="7"/>
       <c r="B174" s="6"/>
       <c r="C174" s="8"/>
       <c r="D174" s="6"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="6"/>
-      <c r="I174" s="8"/>
-      <c r="J174" s="18"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E174" s="6"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="8"/>
+      <c r="L174" s="18"/>
+      <c r="M174"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="7"/>
       <c r="B175" s="6"/>
       <c r="C175" s="8"/>
       <c r="D175" s="6"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="6"/>
-      <c r="I175" s="8"/>
-      <c r="J175" s="18"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E175" s="6"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="8"/>
+      <c r="L175" s="18"/>
+      <c r="M175"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="7"/>
       <c r="B176" s="6"/>
       <c r="C176" s="8"/>
       <c r="D176" s="6"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="6"/>
-      <c r="I176" s="8"/>
-      <c r="J176" s="18"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E176" s="6"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="8"/>
+      <c r="L176" s="18"/>
+      <c r="M176"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="7"/>
       <c r="B177" s="6"/>
       <c r="C177" s="8"/>
       <c r="D177" s="6"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="6"/>
-      <c r="I177" s="8"/>
-      <c r="J177" s="18"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E177" s="6"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="8"/>
+      <c r="L177" s="18"/>
+      <c r="M177"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="7"/>
       <c r="B178" s="6"/>
       <c r="C178" s="8"/>
       <c r="D178" s="6"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="6"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="6"/>
-      <c r="I178" s="8"/>
-      <c r="J178" s="18"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E178" s="6"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="8"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="8"/>
+      <c r="L178" s="18"/>
+      <c r="M178"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="7"/>
       <c r="B179" s="6"/>
       <c r="C179" s="8"/>
       <c r="D179" s="6"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="8"/>
-      <c r="H179" s="6"/>
-      <c r="I179" s="8"/>
-      <c r="J179" s="18"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E179" s="6"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="8"/>
+      <c r="L179" s="18"/>
+      <c r="M179"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="7"/>
       <c r="B180" s="6"/>
       <c r="C180" s="8"/>
       <c r="D180" s="6"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="8"/>
-      <c r="H180" s="6"/>
-      <c r="I180" s="8"/>
-      <c r="J180" s="18"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180" s="6"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="8"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="8"/>
+      <c r="L180" s="18"/>
+      <c r="M180"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="7"/>
       <c r="B181" s="6"/>
       <c r="C181" s="8"/>
       <c r="D181" s="6"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="6"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="8"/>
-      <c r="J181" s="18"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E181" s="6"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="8"/>
+      <c r="L181" s="18"/>
+      <c r="M181"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="7"/>
       <c r="B182" s="6"/>
       <c r="C182" s="8"/>
       <c r="D182" s="6"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="6"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="6"/>
-      <c r="I182" s="8"/>
-      <c r="J182" s="18"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E182" s="6"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="8"/>
+      <c r="L182" s="18"/>
+      <c r="M182"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="7"/>
       <c r="B183" s="6"/>
       <c r="C183" s="8"/>
       <c r="D183" s="6"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="6"/>
-      <c r="G183" s="8"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="8"/>
-      <c r="J183" s="18"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E183" s="6"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="8"/>
+      <c r="L183" s="18"/>
+      <c r="M183"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="7"/>
       <c r="B184" s="6"/>
       <c r="C184" s="8"/>
       <c r="D184" s="6"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="8"/>
-      <c r="J184" s="18"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E184" s="6"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="8"/>
+      <c r="L184" s="18"/>
+      <c r="M184"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="7"/>
       <c r="B185" s="6"/>
       <c r="C185" s="8"/>
       <c r="D185" s="6"/>
-      <c r="E185" s="8"/>
-      <c r="F185" s="6"/>
-      <c r="G185" s="8"/>
-      <c r="H185" s="6"/>
-      <c r="I185" s="8"/>
-      <c r="J185" s="18"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E185" s="6"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="6"/>
+      <c r="K185" s="8"/>
+      <c r="L185" s="18"/>
+      <c r="M185"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="7"/>
       <c r="B186" s="6"/>
       <c r="C186" s="8"/>
       <c r="D186" s="6"/>
-      <c r="E186" s="8"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="8"/>
-      <c r="H186" s="6"/>
-      <c r="I186" s="8"/>
-      <c r="J186" s="18"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E186" s="6"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="8"/>
+      <c r="L186" s="18"/>
+      <c r="M186"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="7"/>
       <c r="B187" s="6"/>
       <c r="C187" s="8"/>
       <c r="D187" s="6"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="8"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="8"/>
-      <c r="J187" s="18"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E187" s="6"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="6"/>
+      <c r="K187" s="8"/>
+      <c r="L187" s="18"/>
+      <c r="M187"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="7"/>
       <c r="B188" s="6"/>
       <c r="C188" s="8"/>
       <c r="D188" s="6"/>
-      <c r="E188" s="8"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="8"/>
-      <c r="H188" s="6"/>
-      <c r="I188" s="8"/>
-      <c r="J188" s="18"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E188" s="6"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="8"/>
+      <c r="L188" s="18"/>
+      <c r="M188"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="7"/>
       <c r="B189" s="6"/>
       <c r="C189" s="8"/>
       <c r="D189" s="6"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="6"/>
-      <c r="G189" s="8"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="8"/>
-      <c r="J189" s="18"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E189" s="6"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="8"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="8"/>
+      <c r="L189" s="18"/>
+      <c r="M189"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="7"/>
       <c r="B190" s="6"/>
       <c r="C190" s="8"/>
       <c r="D190" s="6"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="8"/>
-      <c r="H190" s="6"/>
-      <c r="I190" s="8"/>
-      <c r="J190" s="18"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E190" s="6"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="6"/>
+      <c r="K190" s="8"/>
+      <c r="L190" s="18"/>
+      <c r="M190"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="7"/>
       <c r="B191" s="6"/>
       <c r="C191" s="8"/>
       <c r="D191" s="6"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="6"/>
-      <c r="I191" s="8"/>
-      <c r="J191" s="18"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E191" s="6"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="8"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="8"/>
+      <c r="L191" s="18"/>
+      <c r="M191"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="7"/>
       <c r="B192" s="6"/>
       <c r="C192" s="8"/>
       <c r="D192" s="6"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="6"/>
-      <c r="I192" s="8"/>
-      <c r="J192" s="18"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E192" s="6"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="8"/>
+      <c r="L192" s="18"/>
+      <c r="M192"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="7"/>
       <c r="B193" s="6"/>
       <c r="C193" s="8"/>
       <c r="D193" s="6"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="6"/>
-      <c r="G193" s="8"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="8"/>
-      <c r="J193" s="18"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E193" s="6"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="8"/>
+      <c r="L193" s="18"/>
+      <c r="M193"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="7"/>
       <c r="B194" s="6"/>
       <c r="C194" s="8"/>
       <c r="D194" s="6"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="6"/>
-      <c r="I194" s="8"/>
-      <c r="J194" s="18"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E194" s="6"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="8"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="8"/>
+      <c r="L194" s="18"/>
+      <c r="M194"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="7"/>
       <c r="B195" s="6"/>
       <c r="C195" s="8"/>
       <c r="D195" s="6"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="8"/>
-      <c r="H195" s="6"/>
-      <c r="I195" s="8"/>
-      <c r="J195" s="18"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E195" s="6"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="8"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="8"/>
+      <c r="L195" s="18"/>
+      <c r="M195"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="7"/>
       <c r="B196" s="6"/>
       <c r="C196" s="8"/>
       <c r="D196" s="6"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="8"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="8"/>
-      <c r="J196" s="18"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196" s="6"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="8"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="8"/>
+      <c r="L196" s="18"/>
+      <c r="M196"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="7"/>
       <c r="B197" s="6"/>
       <c r="C197" s="8"/>
       <c r="D197" s="6"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="6"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="6"/>
-      <c r="I197" s="8"/>
-      <c r="J197" s="18"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E197" s="6"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="8"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="8"/>
+      <c r="L197" s="18"/>
+      <c r="M197"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="7"/>
       <c r="B198" s="6"/>
       <c r="C198" s="8"/>
       <c r="D198" s="6"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="8"/>
-      <c r="H198" s="6"/>
-      <c r="I198" s="8"/>
-      <c r="J198" s="18"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E198" s="6"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="8"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="8"/>
+      <c r="L198" s="18"/>
+      <c r="M198"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="7"/>
       <c r="B199" s="6"/>
       <c r="C199" s="8"/>
       <c r="D199" s="6"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="6"/>
-      <c r="G199" s="8"/>
-      <c r="H199" s="6"/>
-      <c r="I199" s="8"/>
-      <c r="J199" s="18"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E199" s="6"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="8"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="8"/>
+      <c r="L199" s="18"/>
+      <c r="M199"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="7"/>
       <c r="B200" s="6"/>
       <c r="C200" s="8"/>
       <c r="D200" s="6"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="8"/>
-      <c r="H200" s="6"/>
-      <c r="I200" s="8"/>
-      <c r="J200" s="18"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E200" s="6"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="8"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="8"/>
+      <c r="L200" s="18"/>
+      <c r="M200"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="9"/>
       <c r="B201" s="16"/>
       <c r="C201" s="10"/>
       <c r="D201" s="16"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="16"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="16"/>
-      <c r="I201" s="10"/>
-      <c r="J201" s="19"/>
+      <c r="E201" s="16"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="16"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="16"/>
+      <c r="J201" s="16"/>
+      <c r="K201" s="10"/>
+      <c r="L201" s="19"/>
+      <c r="M201"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3973,7 +4677,7 @@
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Process ID" error="Process ID must be an integer greater than 0." sqref="C2:C1048576" xr:uid="{D398AB16-7457-4B85-8C85-49A1951758BE}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Environment ID" error="Environmet ID must be an integer greater than 0." sqref="I2:I1048576" xr:uid="{E0B12264-1E3C-464D-AD09-5E7948491C97}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Environment ID" error="Environmet ID must be an integer greater than 0." sqref="L202:L1048576 K2:K201" xr:uid="{E0B12264-1E3C-464D-AD09-5E7948491C97}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3987,7 +4691,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3996,1838 +4700,2244 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="3" width="25.75" style="17" customWidth="1"/>
-    <col min="4" max="5" width="25.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="21" customWidth="1"/>
-    <col min="7" max="7" width="45.75" customWidth="1"/>
+    <col min="4" max="7" width="25.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="21" customWidth="1"/>
+    <col min="9" max="9" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="15"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="15"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="15"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
       <c r="E41" s="12"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="15"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="15"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="15"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="15"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="15"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="15"/>
       <c r="E47" s="12"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="15"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="15"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="15"/>
       <c r="E50" s="12"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="15"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="15"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="15"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="15"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="15"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="15"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="15"/>
       <c r="E57" s="12"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
       <c r="D58" s="15"/>
       <c r="E58" s="12"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="15"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="15"/>
       <c r="E60" s="12"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="6"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="15"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="15"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="15"/>
       <c r="E63" s="12"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="15"/>
       <c r="E64" s="12"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="15"/>
       <c r="E65" s="12"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="15"/>
       <c r="E66" s="12"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="15"/>
       <c r="E67" s="12"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="6"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="15"/>
       <c r="E68" s="12"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="15"/>
       <c r="E69" s="12"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="6"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
       <c r="D70" s="15"/>
       <c r="E70" s="12"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="6"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
       <c r="D71" s="15"/>
       <c r="E71" s="12"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="6"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
       <c r="D72" s="15"/>
       <c r="E72" s="12"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="6"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
       <c r="D73" s="15"/>
       <c r="E73" s="12"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
       <c r="D74" s="15"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="6"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
       <c r="D75" s="15"/>
       <c r="E75" s="12"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="6"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
       <c r="D76" s="15"/>
       <c r="E76" s="12"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
       <c r="D77" s="15"/>
       <c r="E77" s="12"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="6"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
       <c r="D78" s="15"/>
       <c r="E78" s="12"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="6"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
       <c r="D79" s="15"/>
       <c r="E79" s="12"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="6"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
       <c r="D80" s="15"/>
       <c r="E80" s="12"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="6"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
       <c r="D81" s="15"/>
       <c r="E81" s="12"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="6"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
       <c r="D82" s="15"/>
       <c r="E82" s="12"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="6"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="15"/>
       <c r="E83" s="12"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="6"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="15"/>
       <c r="E84" s="12"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="6"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
       <c r="D85" s="15"/>
       <c r="E85" s="12"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="6"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
       <c r="D86" s="15"/>
       <c r="E86" s="12"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="6"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
       <c r="D87" s="15"/>
       <c r="E87" s="12"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="6"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="15"/>
       <c r="E88" s="12"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="6"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="15"/>
       <c r="E89" s="12"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="6"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="15"/>
       <c r="E90" s="12"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="6"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="15"/>
       <c r="E91" s="12"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="6"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="15"/>
       <c r="E92" s="12"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="6"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="15"/>
       <c r="E93" s="12"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="6"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="15"/>
       <c r="E94" s="12"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="6"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="15"/>
       <c r="E95" s="12"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="6"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
       <c r="D96" s="15"/>
       <c r="E96" s="12"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="6"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
       <c r="D97" s="15"/>
       <c r="E97" s="12"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="6"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
       <c r="D98" s="15"/>
       <c r="E98" s="12"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="6"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
       <c r="D99" s="15"/>
       <c r="E99" s="12"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="6"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
       <c r="D100" s="15"/>
       <c r="E100" s="12"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="6"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
       <c r="D101" s="15"/>
       <c r="E101" s="12"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="6"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
       <c r="D102" s="15"/>
       <c r="E102" s="12"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="6"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
       <c r="D103" s="15"/>
       <c r="E103" s="12"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="6"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="15"/>
       <c r="E104" s="12"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="6"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
       <c r="D105" s="15"/>
       <c r="E105" s="12"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="6"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
       <c r="D106" s="15"/>
       <c r="E106" s="12"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="6"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
       <c r="D107" s="15"/>
       <c r="E107" s="12"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="6"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
       <c r="D108" s="15"/>
       <c r="E108" s="12"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="6"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
       <c r="D109" s="15"/>
       <c r="E109" s="12"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="6"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
       <c r="D110" s="15"/>
       <c r="E110" s="12"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="6"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
       <c r="D111" s="15"/>
       <c r="E111" s="12"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="6"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
       <c r="D112" s="15"/>
       <c r="E112" s="12"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="6"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
       <c r="D113" s="15"/>
       <c r="E113" s="12"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="6"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
       <c r="D114" s="15"/>
       <c r="E114" s="12"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="6"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
       <c r="D115" s="15"/>
       <c r="E115" s="12"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="6"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
       <c r="D116" s="15"/>
       <c r="E116" s="12"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="6"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F116" s="23"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
       <c r="D117" s="15"/>
       <c r="E117" s="12"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="6"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
       <c r="D118" s="15"/>
       <c r="E118" s="12"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="6"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
       <c r="D119" s="15"/>
       <c r="E119" s="12"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="6"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
       <c r="D120" s="15"/>
       <c r="E120" s="12"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="6"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
       <c r="D121" s="15"/>
       <c r="E121" s="12"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="6"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
       <c r="D122" s="15"/>
       <c r="E122" s="12"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="6"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
       <c r="D123" s="15"/>
       <c r="E123" s="12"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="6"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
       <c r="D124" s="15"/>
       <c r="E124" s="12"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="6"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
       <c r="D125" s="15"/>
       <c r="E125" s="12"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="6"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F125" s="23"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
       <c r="D126" s="15"/>
       <c r="E126" s="12"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="6"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
       <c r="D127" s="15"/>
       <c r="E127" s="12"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="6"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
       <c r="D128" s="15"/>
       <c r="E128" s="12"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="6"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
       <c r="D129" s="15"/>
       <c r="E129" s="12"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="6"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F129" s="23"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="6"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
       <c r="D130" s="15"/>
       <c r="E130" s="12"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="6"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
       <c r="D131" s="15"/>
       <c r="E131" s="12"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="6"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
       <c r="D132" s="15"/>
       <c r="E132" s="12"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="6"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
       <c r="D133" s="15"/>
       <c r="E133" s="12"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="6"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F133" s="23"/>
+      <c r="G133" s="23"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
       <c r="D134" s="15"/>
       <c r="E134" s="12"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="6"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F134" s="23"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
       <c r="D135" s="15"/>
       <c r="E135" s="12"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="6"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
       <c r="D136" s="15"/>
       <c r="E136" s="12"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="6"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F136" s="23"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
       <c r="D137" s="15"/>
       <c r="E137" s="12"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="6"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F137" s="23"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="6"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
       <c r="D138" s="15"/>
       <c r="E138" s="12"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="6"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F138" s="23"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
       <c r="D139" s="15"/>
       <c r="E139" s="12"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="6"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F139" s="23"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
       <c r="D140" s="15"/>
       <c r="E140" s="12"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="6"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
       <c r="D141" s="15"/>
       <c r="E141" s="12"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="6"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F141" s="23"/>
+      <c r="G141" s="23"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
       <c r="D142" s="15"/>
       <c r="E142" s="12"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="6"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F142" s="23"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
       <c r="D143" s="15"/>
       <c r="E143" s="12"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="6"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F143" s="23"/>
+      <c r="G143" s="23"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
       <c r="D144" s="15"/>
       <c r="E144" s="12"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="6"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F144" s="23"/>
+      <c r="G144" s="23"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
       <c r="D145" s="15"/>
       <c r="E145" s="12"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="6"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F145" s="23"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
       <c r="D146" s="15"/>
       <c r="E146" s="12"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="6"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
       <c r="D147" s="15"/>
       <c r="E147" s="12"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="6"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
       <c r="D148" s="15"/>
       <c r="E148" s="12"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="6"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F148" s="23"/>
+      <c r="G148" s="23"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
       <c r="D149" s="15"/>
       <c r="E149" s="12"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="6"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F149" s="23"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="6"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
       <c r="D150" s="15"/>
       <c r="E150" s="12"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="6"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F150" s="23"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="6"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
       <c r="D151" s="15"/>
       <c r="E151" s="12"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="6"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F151" s="23"/>
+      <c r="G151" s="23"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="6"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
       <c r="D152" s="15"/>
       <c r="E152" s="12"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="6"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F152" s="23"/>
+      <c r="G152" s="23"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="6"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
       <c r="D153" s="15"/>
       <c r="E153" s="12"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="6"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F153" s="23"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="6"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
       <c r="D154" s="15"/>
       <c r="E154" s="12"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="6"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="6"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
       <c r="D155" s="15"/>
       <c r="E155" s="12"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="6"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F155" s="23"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="6"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
       <c r="D156" s="15"/>
       <c r="E156" s="12"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="6"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F156" s="23"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="6"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
       <c r="D157" s="15"/>
       <c r="E157" s="12"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="6"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F157" s="23"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="6"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
       <c r="D158" s="15"/>
       <c r="E158" s="12"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="6"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F158" s="23"/>
+      <c r="G158" s="23"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="6"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
       <c r="D159" s="15"/>
       <c r="E159" s="12"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="6"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F159" s="23"/>
+      <c r="G159" s="23"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="6"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
       <c r="D160" s="15"/>
       <c r="E160" s="12"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="6"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F160" s="23"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="6"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
       <c r="D161" s="15"/>
       <c r="E161" s="12"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="6"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F161" s="23"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="6"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
       <c r="D162" s="15"/>
       <c r="E162" s="12"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="6"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F162" s="23"/>
+      <c r="G162" s="23"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="6"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
       <c r="D163" s="15"/>
       <c r="E163" s="12"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="6"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F163" s="23"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="6"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
       <c r="D164" s="15"/>
       <c r="E164" s="12"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="6"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="6"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
       <c r="D165" s="15"/>
       <c r="E165" s="12"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="6"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F165" s="23"/>
+      <c r="G165" s="23"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="6"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
       <c r="D166" s="15"/>
       <c r="E166" s="12"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="6"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F166" s="23"/>
+      <c r="G166" s="23"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="6"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
       <c r="D167" s="15"/>
       <c r="E167" s="12"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="6"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F167" s="23"/>
+      <c r="G167" s="23"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="6"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
       <c r="D168" s="15"/>
       <c r="E168" s="12"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="6"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F168" s="23"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="6"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
       <c r="D169" s="15"/>
       <c r="E169" s="12"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="6"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F169" s="23"/>
+      <c r="G169" s="23"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="6"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
       <c r="D170" s="15"/>
       <c r="E170" s="12"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="6"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F170" s="23"/>
+      <c r="G170" s="23"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="6"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
       <c r="D171" s="15"/>
       <c r="E171" s="12"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="6"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F171" s="23"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="6"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
       <c r="D172" s="15"/>
       <c r="E172" s="12"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="6"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F172" s="23"/>
+      <c r="G172" s="23"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="6"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
       <c r="D173" s="15"/>
       <c r="E173" s="12"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="6"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F173" s="23"/>
+      <c r="G173" s="23"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="6"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
       <c r="D174" s="15"/>
       <c r="E174" s="12"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="6"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F174" s="23"/>
+      <c r="G174" s="23"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="6"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
       <c r="D175" s="15"/>
       <c r="E175" s="12"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="6"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F175" s="23"/>
+      <c r="G175" s="23"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="6"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
       <c r="D176" s="15"/>
       <c r="E176" s="12"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="6"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F176" s="23"/>
+      <c r="G176" s="23"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="6"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
       <c r="D177" s="15"/>
       <c r="E177" s="12"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="6"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F177" s="23"/>
+      <c r="G177" s="23"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="6"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
       <c r="D178" s="15"/>
       <c r="E178" s="12"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="6"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F178" s="23"/>
+      <c r="G178" s="23"/>
+      <c r="H178" s="8"/>
+      <c r="I178" s="6"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
       <c r="D179" s="15"/>
       <c r="E179" s="12"/>
-      <c r="F179" s="8"/>
-      <c r="G179" s="6"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F179" s="23"/>
+      <c r="G179" s="23"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="6"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
       <c r="D180" s="15"/>
       <c r="E180" s="12"/>
-      <c r="F180" s="8"/>
-      <c r="G180" s="6"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F180" s="23"/>
+      <c r="G180" s="23"/>
+      <c r="H180" s="8"/>
+      <c r="I180" s="6"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
       <c r="D181" s="15"/>
       <c r="E181" s="12"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="6"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F181" s="23"/>
+      <c r="G181" s="23"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="6"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
       <c r="D182" s="15"/>
       <c r="E182" s="12"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="6"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F182" s="23"/>
+      <c r="G182" s="23"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="6"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
       <c r="D183" s="15"/>
       <c r="E183" s="12"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="6"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F183" s="23"/>
+      <c r="G183" s="23"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="6"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
       <c r="D184" s="15"/>
       <c r="E184" s="12"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="6"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F184" s="23"/>
+      <c r="G184" s="23"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="6"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
       <c r="D185" s="15"/>
       <c r="E185" s="12"/>
-      <c r="F185" s="8"/>
-      <c r="G185" s="6"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F185" s="23"/>
+      <c r="G185" s="23"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="6"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
       <c r="D186" s="15"/>
       <c r="E186" s="12"/>
-      <c r="F186" s="8"/>
-      <c r="G186" s="6"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F186" s="23"/>
+      <c r="G186" s="23"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="6"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
       <c r="D187" s="15"/>
       <c r="E187" s="12"/>
-      <c r="F187" s="8"/>
-      <c r="G187" s="6"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F187" s="23"/>
+      <c r="G187" s="23"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="6"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
       <c r="D188" s="15"/>
       <c r="E188" s="12"/>
-      <c r="F188" s="8"/>
-      <c r="G188" s="6"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F188" s="23"/>
+      <c r="G188" s="23"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="6"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
       <c r="D189" s="15"/>
       <c r="E189" s="12"/>
-      <c r="F189" s="8"/>
-      <c r="G189" s="6"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F189" s="23"/>
+      <c r="G189" s="23"/>
+      <c r="H189" s="8"/>
+      <c r="I189" s="6"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
       <c r="D190" s="15"/>
       <c r="E190" s="12"/>
-      <c r="F190" s="8"/>
-      <c r="G190" s="6"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F190" s="23"/>
+      <c r="G190" s="23"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="6"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
       <c r="D191" s="15"/>
       <c r="E191" s="12"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="6"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F191" s="23"/>
+      <c r="G191" s="23"/>
+      <c r="H191" s="8"/>
+      <c r="I191" s="6"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
       <c r="D192" s="15"/>
       <c r="E192" s="12"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="6"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F192" s="23"/>
+      <c r="G192" s="23"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="6"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
       <c r="D193" s="15"/>
       <c r="E193" s="12"/>
-      <c r="F193" s="8"/>
-      <c r="G193" s="6"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F193" s="23"/>
+      <c r="G193" s="23"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="6"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
       <c r="D194" s="15"/>
       <c r="E194" s="12"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="6"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F194" s="23"/>
+      <c r="G194" s="23"/>
+      <c r="H194" s="8"/>
+      <c r="I194" s="6"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
       <c r="D195" s="15"/>
       <c r="E195" s="12"/>
-      <c r="F195" s="8"/>
-      <c r="G195" s="6"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F195" s="23"/>
+      <c r="G195" s="23"/>
+      <c r="H195" s="8"/>
+      <c r="I195" s="6"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
       <c r="D196" s="15"/>
       <c r="E196" s="12"/>
-      <c r="F196" s="8"/>
-      <c r="G196" s="6"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F196" s="23"/>
+      <c r="G196" s="23"/>
+      <c r="H196" s="8"/>
+      <c r="I196" s="6"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
       <c r="D197" s="15"/>
       <c r="E197" s="12"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="6"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F197" s="23"/>
+      <c r="G197" s="23"/>
+      <c r="H197" s="8"/>
+      <c r="I197" s="6"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
       <c r="D198" s="15"/>
       <c r="E198" s="12"/>
-      <c r="F198" s="8"/>
-      <c r="G198" s="6"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F198" s="23"/>
+      <c r="G198" s="23"/>
+      <c r="H198" s="8"/>
+      <c r="I198" s="6"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
       <c r="D199" s="15"/>
       <c r="E199" s="12"/>
-      <c r="F199" s="8"/>
-      <c r="G199" s="6"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F199" s="23"/>
+      <c r="G199" s="23"/>
+      <c r="H199" s="8"/>
+      <c r="I199" s="6"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
       <c r="D200" s="15"/>
       <c r="E200" s="12"/>
-      <c r="F200" s="8"/>
-      <c r="G200" s="6"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F200" s="23"/>
+      <c r="G200" s="23"/>
+      <c r="H200" s="8"/>
+      <c r="I200" s="6"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
       <c r="D201" s="15"/>
       <c r="E201" s="12"/>
-      <c r="F201" s="8"/>
-      <c r="G201" s="6"/>
+      <c r="F201" s="23"/>
+      <c r="G201" s="23"/>
+      <c r="H201" s="8"/>
+      <c r="I201" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Process ID" error="Process ID must be an integer greater than 0." sqref="E202:E1048576 F2:F201" xr:uid="{12BB3E27-FA95-42C2-9A08-6E29D130DDED}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Process ID" error="Process ID must be an integer greater than 0." sqref="E202:G1048576 H2:H201" xr:uid="{12BB3E27-FA95-42C2-9A08-6E29D130DDED}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5870,7 +6980,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7314,7 +8424,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -8350,7 +9460,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F167FB6-383E-4F3A-84BC-795462D2FF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1CA79D-782C-432D-AF7B-F98396EEDF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58740" yWindow="1140" windowWidth="28800" windowHeight="11265" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1CA79D-782C-432D-AF7B-F98396EEDF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B383A83-A69C-47A2-A85B-402CA129BDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -1607,6 +1607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4691,6 +4692,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6951,6 +6953,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8403,6 +8406,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73634577-E9D2-4B29-8F7D-B913107740E0}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9439,6 +9443,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7FA3EC-4452-46FF-9F0C-48E83E60D5C6}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B383A83-A69C-47A2-A85B-402CA129BDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660FD01A-5770-49DD-AB3F-4B53E168196B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660FD01A-5770-49DD-AB3F-4B53E168196B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76DF410-215A-444D-99E3-AE8F5B02DAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76DF410-215A-444D-99E3-AE8F5B02DAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18E6E1F-B4C9-4A48-AFF2-7B78C9B5BB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18E6E1F-B4C9-4A48-AFF2-7B78C9B5BB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444148BA-8FA3-4DF7-8668-0C7F7B0C8799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444148BA-8FA3-4DF7-8668-0C7F7B0C8799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C448000-7BFD-4804-9A06-0CA1D06BAB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C448000-7BFD-4804-9A06-0CA1D06BAB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FDCD24-A13E-4DC1-A4B8-AAEC5B58895E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FDCD24-A13E-4DC1-A4B8-AAEC5B58895E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAAF23B-1110-4970-AF20-DCC2B7CBE606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAAF23B-1110-4970-AF20-DCC2B7CBE606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B44FEB-7D2A-404B-9FFB-C7C01B4FE614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B44FEB-7D2A-404B-9FFB-C7C01B4FE614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93EA537-E32A-4FBB-B8BE-051656D471D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -1614,7 +1614,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="17" customWidth="1"/>
@@ -1628,7 +1628,7 @@
     <col min="13" max="13" width="25.75" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="36.75" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1682,7 +1682,7 @@
       <c r="L2" s="18"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1697,7 +1697,7 @@
       <c r="L3" s="18"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1712,7 +1712,7 @@
       <c r="L4" s="18"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1727,7 +1727,7 @@
       <c r="L5" s="18"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1742,7 +1742,7 @@
       <c r="L6" s="18"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1757,7 +1757,7 @@
       <c r="L7" s="18"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1772,7 +1772,7 @@
       <c r="L8" s="18"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1787,7 +1787,7 @@
       <c r="L9" s="18"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1802,7 +1802,7 @@
       <c r="L10" s="18"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="8"/>
@@ -1817,7 +1817,7 @@
       <c r="L11" s="18"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
@@ -1832,7 +1832,7 @@
       <c r="L12" s="18"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
@@ -1847,7 +1847,7 @@
       <c r="L13" s="18"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
@@ -1862,7 +1862,7 @@
       <c r="L14" s="18"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
@@ -1877,7 +1877,7 @@
       <c r="L15" s="18"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
@@ -1892,7 +1892,7 @@
       <c r="L16" s="18"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
@@ -1907,7 +1907,7 @@
       <c r="L17" s="18"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="6"/>
       <c r="C18" s="8"/>
@@ -1922,7 +1922,7 @@
       <c r="L18" s="18"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="6"/>
       <c r="C20" s="8"/>
@@ -1954,7 +1954,7 @@
       <c r="L20" s="18"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="6"/>
       <c r="C21" s="8"/>
@@ -1969,7 +1969,7 @@
       <c r="L21" s="18"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
@@ -1984,7 +1984,7 @@
       <c r="L22" s="18"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="6"/>
       <c r="C23" s="8"/>
@@ -1999,7 +1999,7 @@
       <c r="L23" s="18"/>
       <c r="M23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
       <c r="B24" s="6"/>
       <c r="C24" s="8"/>
@@ -2014,7 +2014,7 @@
       <c r="L24" s="18"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="8"/>
@@ -2029,7 +2029,7 @@
       <c r="L25" s="18"/>
       <c r="M25"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="8"/>
@@ -2044,7 +2044,7 @@
       <c r="L26" s="18"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="8"/>
@@ -2059,7 +2059,7 @@
       <c r="L27" s="18"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="8"/>
@@ -2074,7 +2074,7 @@
       <c r="L28" s="18"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="8"/>
@@ -2089,7 +2089,7 @@
       <c r="L29" s="18"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="8"/>
@@ -2104,7 +2104,7 @@
       <c r="L30" s="18"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="8"/>
@@ -2119,7 +2119,7 @@
       <c r="L31" s="18"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="8"/>
@@ -2134,7 +2134,7 @@
       <c r="L32" s="18"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="8"/>
@@ -2149,7 +2149,7 @@
       <c r="L33" s="18"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
       <c r="B34" s="6"/>
       <c r="C34" s="8"/>
@@ -2164,7 +2164,7 @@
       <c r="L34" s="18"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
       <c r="B35" s="6"/>
       <c r="C35" s="8"/>
@@ -2179,7 +2179,7 @@
       <c r="L35" s="18"/>
       <c r="M35"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
       <c r="B36" s="6"/>
       <c r="C36" s="8"/>
@@ -2194,7 +2194,7 @@
       <c r="L36" s="18"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
       <c r="B37" s="6"/>
       <c r="C37" s="8"/>
@@ -2209,7 +2209,7 @@
       <c r="L37" s="18"/>
       <c r="M37"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
       <c r="B38" s="6"/>
       <c r="C38" s="8"/>
@@ -2224,7 +2224,7 @@
       <c r="L38" s="18"/>
       <c r="M38"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
       <c r="B39" s="6"/>
       <c r="C39" s="8"/>
@@ -2239,7 +2239,7 @@
       <c r="L39" s="18"/>
       <c r="M39"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="8"/>
@@ -2254,7 +2254,7 @@
       <c r="L40" s="18"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
       <c r="B41" s="6"/>
       <c r="C41" s="8"/>
@@ -2269,7 +2269,7 @@
       <c r="L41" s="18"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="7"/>
       <c r="B42" s="6"/>
       <c r="C42" s="8"/>
@@ -2284,7 +2284,7 @@
       <c r="L42" s="18"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="7"/>
       <c r="B43" s="6"/>
       <c r="C43" s="8"/>
@@ -2299,7 +2299,7 @@
       <c r="L43" s="18"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="7"/>
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
@@ -2314,7 +2314,7 @@
       <c r="L44" s="18"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="7"/>
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
@@ -2329,7 +2329,7 @@
       <c r="L45" s="18"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="7"/>
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
@@ -2344,7 +2344,7 @@
       <c r="L46" s="18"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
@@ -2359,7 +2359,7 @@
       <c r="L47" s="18"/>
       <c r="M47"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="7"/>
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
@@ -2374,7 +2374,7 @@
       <c r="L48" s="18"/>
       <c r="M48"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
       <c r="B49" s="6"/>
       <c r="C49" s="8"/>
@@ -2389,7 +2389,7 @@
       <c r="L49" s="18"/>
       <c r="M49"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="7"/>
       <c r="B50" s="6"/>
       <c r="C50" s="8"/>
@@ -2404,7 +2404,7 @@
       <c r="L50" s="18"/>
       <c r="M50"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="7"/>
       <c r="B51" s="6"/>
       <c r="C51" s="8"/>
@@ -2419,7 +2419,7 @@
       <c r="L51" s="18"/>
       <c r="M51"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
       <c r="B52" s="6"/>
       <c r="C52" s="8"/>
@@ -2434,7 +2434,7 @@
       <c r="L52" s="18"/>
       <c r="M52"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
       <c r="B53" s="6"/>
       <c r="C53" s="8"/>
@@ -2449,7 +2449,7 @@
       <c r="L53" s="18"/>
       <c r="M53"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
       <c r="B54" s="6"/>
       <c r="C54" s="8"/>
@@ -2464,7 +2464,7 @@
       <c r="L54" s="18"/>
       <c r="M54"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
       <c r="B55" s="6"/>
       <c r="C55" s="8"/>
@@ -2479,7 +2479,7 @@
       <c r="L55" s="18"/>
       <c r="M55"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
       <c r="B56" s="6"/>
       <c r="C56" s="8"/>
@@ -2494,7 +2494,7 @@
       <c r="L56" s="18"/>
       <c r="M56"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
       <c r="B57" s="6"/>
       <c r="C57" s="8"/>
@@ -2509,7 +2509,7 @@
       <c r="L57" s="18"/>
       <c r="M57"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
       <c r="B58" s="6"/>
       <c r="C58" s="8"/>
@@ -2524,7 +2524,7 @@
       <c r="L58" s="18"/>
       <c r="M58"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="7"/>
       <c r="B59" s="6"/>
       <c r="C59" s="8"/>
@@ -2539,7 +2539,7 @@
       <c r="L59" s="18"/>
       <c r="M59"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="7"/>
       <c r="B60" s="6"/>
       <c r="C60" s="8"/>
@@ -2554,7 +2554,7 @@
       <c r="L60" s="18"/>
       <c r="M60"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="7"/>
       <c r="B61" s="6"/>
       <c r="C61" s="8"/>
@@ -2569,7 +2569,7 @@
       <c r="L61" s="18"/>
       <c r="M61"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="7"/>
       <c r="B62" s="6"/>
       <c r="C62" s="8"/>
@@ -2584,7 +2584,7 @@
       <c r="L62" s="18"/>
       <c r="M62"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="7"/>
       <c r="B63" s="6"/>
       <c r="C63" s="8"/>
@@ -2599,7 +2599,7 @@
       <c r="L63" s="18"/>
       <c r="M63"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="7"/>
       <c r="B64" s="6"/>
       <c r="C64" s="8"/>
@@ -2614,7 +2614,7 @@
       <c r="L64" s="18"/>
       <c r="M64"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="7"/>
       <c r="B65" s="6"/>
       <c r="C65" s="8"/>
@@ -2629,7 +2629,7 @@
       <c r="L65" s="18"/>
       <c r="M65"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="7"/>
       <c r="B66" s="6"/>
       <c r="C66" s="8"/>
@@ -2644,7 +2644,7 @@
       <c r="L66" s="18"/>
       <c r="M66"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="7"/>
       <c r="B67" s="6"/>
       <c r="C67" s="8"/>
@@ -2659,7 +2659,7 @@
       <c r="L67" s="18"/>
       <c r="M67"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="7"/>
       <c r="B68" s="6"/>
       <c r="C68" s="8"/>
@@ -2674,7 +2674,7 @@
       <c r="L68" s="18"/>
       <c r="M68"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="7"/>
       <c r="B69" s="6"/>
       <c r="C69" s="8"/>
@@ -2689,7 +2689,7 @@
       <c r="L69" s="18"/>
       <c r="M69"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="7"/>
       <c r="B70" s="6"/>
       <c r="C70" s="8"/>
@@ -2704,7 +2704,7 @@
       <c r="L70" s="18"/>
       <c r="M70"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="7"/>
       <c r="B71" s="6"/>
       <c r="C71" s="8"/>
@@ -2719,7 +2719,7 @@
       <c r="L71" s="18"/>
       <c r="M71"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="7"/>
       <c r="B72" s="6"/>
       <c r="C72" s="8"/>
@@ -2734,7 +2734,7 @@
       <c r="L72" s="18"/>
       <c r="M72"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="7"/>
       <c r="B73" s="6"/>
       <c r="C73" s="8"/>
@@ -2749,7 +2749,7 @@
       <c r="L73" s="18"/>
       <c r="M73"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="7"/>
       <c r="B74" s="6"/>
       <c r="C74" s="8"/>
@@ -2764,7 +2764,7 @@
       <c r="L74" s="18"/>
       <c r="M74"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="7"/>
       <c r="B75" s="6"/>
       <c r="C75" s="8"/>
@@ -2779,7 +2779,7 @@
       <c r="L75" s="18"/>
       <c r="M75"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="7"/>
       <c r="B76" s="6"/>
       <c r="C76" s="8"/>
@@ -2794,7 +2794,7 @@
       <c r="L76" s="18"/>
       <c r="M76"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="7"/>
       <c r="B77" s="6"/>
       <c r="C77" s="8"/>
@@ -2809,7 +2809,7 @@
       <c r="L77" s="18"/>
       <c r="M77"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="7"/>
       <c r="B78" s="6"/>
       <c r="C78" s="8"/>
@@ -2824,7 +2824,7 @@
       <c r="L78" s="18"/>
       <c r="M78"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="7"/>
       <c r="B79" s="6"/>
       <c r="C79" s="8"/>
@@ -2839,7 +2839,7 @@
       <c r="L79" s="18"/>
       <c r="M79"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
       <c r="B80" s="6"/>
       <c r="C80" s="8"/>
@@ -2854,7 +2854,7 @@
       <c r="L80" s="18"/>
       <c r="M80"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="7"/>
       <c r="B81" s="6"/>
       <c r="C81" s="8"/>
@@ -2869,7 +2869,7 @@
       <c r="L81" s="18"/>
       <c r="M81"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="7"/>
       <c r="B82" s="6"/>
       <c r="C82" s="8"/>
@@ -2884,7 +2884,7 @@
       <c r="L82" s="18"/>
       <c r="M82"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="7"/>
       <c r="B83" s="6"/>
       <c r="C83" s="8"/>
@@ -2899,7 +2899,7 @@
       <c r="L83" s="18"/>
       <c r="M83"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="7"/>
       <c r="B84" s="6"/>
       <c r="C84" s="8"/>
@@ -2914,7 +2914,7 @@
       <c r="L84" s="18"/>
       <c r="M84"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="7"/>
       <c r="B85" s="6"/>
       <c r="C85" s="8"/>
@@ -2929,7 +2929,7 @@
       <c r="L85" s="18"/>
       <c r="M85"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="7"/>
       <c r="B86" s="6"/>
       <c r="C86" s="8"/>
@@ -2944,7 +2944,7 @@
       <c r="L86" s="18"/>
       <c r="M86"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="7"/>
       <c r="B87" s="6"/>
       <c r="C87" s="8"/>
@@ -2959,7 +2959,7 @@
       <c r="L87" s="18"/>
       <c r="M87"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="7"/>
       <c r="B88" s="6"/>
       <c r="C88" s="8"/>
@@ -2974,7 +2974,7 @@
       <c r="L88" s="18"/>
       <c r="M88"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="7"/>
       <c r="B89" s="6"/>
       <c r="C89" s="8"/>
@@ -2989,7 +2989,7 @@
       <c r="L89" s="18"/>
       <c r="M89"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="7"/>
       <c r="B90" s="6"/>
       <c r="C90" s="8"/>
@@ -3004,7 +3004,7 @@
       <c r="L90" s="18"/>
       <c r="M90"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="7"/>
       <c r="B91" s="6"/>
       <c r="C91" s="8"/>
@@ -3019,7 +3019,7 @@
       <c r="L91" s="18"/>
       <c r="M91"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="7"/>
       <c r="B92" s="6"/>
       <c r="C92" s="8"/>
@@ -3034,7 +3034,7 @@
       <c r="L92" s="18"/>
       <c r="M92"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="7"/>
       <c r="B93" s="6"/>
       <c r="C93" s="8"/>
@@ -3049,7 +3049,7 @@
       <c r="L93" s="18"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="7"/>
       <c r="B94" s="6"/>
       <c r="C94" s="8"/>
@@ -3064,7 +3064,7 @@
       <c r="L94" s="18"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" s="7"/>
       <c r="B95" s="6"/>
       <c r="C95" s="8"/>
@@ -3079,7 +3079,7 @@
       <c r="L95" s="18"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" s="7"/>
       <c r="B96" s="6"/>
       <c r="C96" s="8"/>
@@ -3094,7 +3094,7 @@
       <c r="L96" s="18"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" s="7"/>
       <c r="B97" s="6"/>
       <c r="C97" s="8"/>
@@ -3109,7 +3109,7 @@
       <c r="L97" s="18"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" s="7"/>
       <c r="B98" s="6"/>
       <c r="C98" s="8"/>
@@ -3124,7 +3124,7 @@
       <c r="L98" s="18"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="7"/>
       <c r="B99" s="6"/>
       <c r="C99" s="8"/>
@@ -3139,7 +3139,7 @@
       <c r="L99" s="18"/>
       <c r="M99"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="7"/>
       <c r="B100" s="6"/>
       <c r="C100" s="8"/>
@@ -3154,7 +3154,7 @@
       <c r="L100" s="18"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="7"/>
       <c r="B101" s="6"/>
       <c r="C101" s="8"/>
@@ -3169,7 +3169,7 @@
       <c r="L101" s="18"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="7"/>
       <c r="B102" s="6"/>
       <c r="C102" s="8"/>
@@ -3184,7 +3184,7 @@
       <c r="L102" s="18"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="7"/>
       <c r="B103" s="6"/>
       <c r="C103" s="8"/>
@@ -3199,7 +3199,7 @@
       <c r="L103" s="18"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="7"/>
       <c r="B104" s="6"/>
       <c r="C104" s="8"/>
@@ -3214,7 +3214,7 @@
       <c r="L104" s="18"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="7"/>
       <c r="B105" s="6"/>
       <c r="C105" s="8"/>
@@ -3229,7 +3229,7 @@
       <c r="L105" s="18"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="7"/>
       <c r="B106" s="6"/>
       <c r="C106" s="8"/>
@@ -3244,7 +3244,7 @@
       <c r="L106" s="18"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="7"/>
       <c r="B107" s="6"/>
       <c r="C107" s="8"/>
@@ -3259,7 +3259,7 @@
       <c r="L107" s="18"/>
       <c r="M107"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="7"/>
       <c r="B108" s="6"/>
       <c r="C108" s="8"/>
@@ -3274,7 +3274,7 @@
       <c r="L108" s="18"/>
       <c r="M108"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="7"/>
       <c r="B109" s="6"/>
       <c r="C109" s="8"/>
@@ -3289,7 +3289,7 @@
       <c r="L109" s="18"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="7"/>
       <c r="B110" s="6"/>
       <c r="C110" s="8"/>
@@ -3304,7 +3304,7 @@
       <c r="L110" s="18"/>
       <c r="M110"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="7"/>
       <c r="B111" s="6"/>
       <c r="C111" s="8"/>
@@ -3319,7 +3319,7 @@
       <c r="L111" s="18"/>
       <c r="M111"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="7"/>
       <c r="B112" s="6"/>
       <c r="C112" s="8"/>
@@ -3334,7 +3334,7 @@
       <c r="L112" s="18"/>
       <c r="M112"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" s="7"/>
       <c r="B113" s="6"/>
       <c r="C113" s="8"/>
@@ -3349,7 +3349,7 @@
       <c r="L113" s="18"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" s="7"/>
       <c r="B114" s="6"/>
       <c r="C114" s="8"/>
@@ -3364,7 +3364,7 @@
       <c r="L114" s="18"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" s="7"/>
       <c r="B115" s="6"/>
       <c r="C115" s="8"/>
@@ -3379,7 +3379,7 @@
       <c r="L115" s="18"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" s="7"/>
       <c r="B116" s="6"/>
       <c r="C116" s="8"/>
@@ -3394,7 +3394,7 @@
       <c r="L116" s="18"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" s="7"/>
       <c r="B117" s="6"/>
       <c r="C117" s="8"/>
@@ -3409,7 +3409,7 @@
       <c r="L117" s="18"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" s="7"/>
       <c r="B118" s="6"/>
       <c r="C118" s="8"/>
@@ -3424,7 +3424,7 @@
       <c r="L118" s="18"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" s="7"/>
       <c r="B119" s="6"/>
       <c r="C119" s="8"/>
@@ -3439,7 +3439,7 @@
       <c r="L119" s="18"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" s="7"/>
       <c r="B120" s="6"/>
       <c r="C120" s="8"/>
@@ -3454,7 +3454,7 @@
       <c r="L120" s="18"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" s="7"/>
       <c r="B121" s="6"/>
       <c r="C121" s="8"/>
@@ -3469,7 +3469,7 @@
       <c r="L121" s="18"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" s="6"/>
       <c r="C122" s="8"/>
@@ -3484,7 +3484,7 @@
       <c r="L122" s="18"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" s="7"/>
       <c r="B123" s="6"/>
       <c r="C123" s="8"/>
@@ -3499,7 +3499,7 @@
       <c r="L123" s="18"/>
       <c r="M123"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" s="7"/>
       <c r="B124" s="6"/>
       <c r="C124" s="8"/>
@@ -3514,7 +3514,7 @@
       <c r="L124" s="18"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" s="7"/>
       <c r="B125" s="6"/>
       <c r="C125" s="8"/>
@@ -3529,7 +3529,7 @@
       <c r="L125" s="18"/>
       <c r="M125"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" s="7"/>
       <c r="B126" s="6"/>
       <c r="C126" s="8"/>
@@ -3544,7 +3544,7 @@
       <c r="L126" s="18"/>
       <c r="M126"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" s="7"/>
       <c r="B127" s="6"/>
       <c r="C127" s="8"/>
@@ -3559,7 +3559,7 @@
       <c r="L127" s="18"/>
       <c r="M127"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" s="7"/>
       <c r="B128" s="6"/>
       <c r="C128" s="8"/>
@@ -3574,7 +3574,7 @@
       <c r="L128" s="18"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" s="7"/>
       <c r="B129" s="6"/>
       <c r="C129" s="8"/>
@@ -3589,7 +3589,7 @@
       <c r="L129" s="18"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" s="7"/>
       <c r="B130" s="6"/>
       <c r="C130" s="8"/>
@@ -3604,7 +3604,7 @@
       <c r="L130" s="18"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" s="7"/>
       <c r="B131" s="6"/>
       <c r="C131" s="8"/>
@@ -3619,7 +3619,7 @@
       <c r="L131" s="18"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" s="7"/>
       <c r="B132" s="6"/>
       <c r="C132" s="8"/>
@@ -3634,7 +3634,7 @@
       <c r="L132" s="18"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" s="7"/>
       <c r="B133" s="6"/>
       <c r="C133" s="8"/>
@@ -3649,7 +3649,7 @@
       <c r="L133" s="18"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" s="7"/>
       <c r="B134" s="6"/>
       <c r="C134" s="8"/>
@@ -3664,7 +3664,7 @@
       <c r="L134" s="18"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" s="7"/>
       <c r="B135" s="6"/>
       <c r="C135" s="8"/>
@@ -3679,7 +3679,7 @@
       <c r="L135" s="18"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" s="7"/>
       <c r="B136" s="6"/>
       <c r="C136" s="8"/>
@@ -3694,7 +3694,7 @@
       <c r="L136" s="18"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" s="7"/>
       <c r="B137" s="6"/>
       <c r="C137" s="8"/>
@@ -3709,7 +3709,7 @@
       <c r="L137" s="18"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" s="7"/>
       <c r="B138" s="6"/>
       <c r="C138" s="8"/>
@@ -3724,7 +3724,7 @@
       <c r="L138" s="18"/>
       <c r="M138"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" s="7"/>
       <c r="B139" s="6"/>
       <c r="C139" s="8"/>
@@ -3739,7 +3739,7 @@
       <c r="L139" s="18"/>
       <c r="M139"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" s="7"/>
       <c r="B140" s="6"/>
       <c r="C140" s="8"/>
@@ -3754,7 +3754,7 @@
       <c r="L140" s="18"/>
       <c r="M140"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" s="7"/>
       <c r="B141" s="6"/>
       <c r="C141" s="8"/>
@@ -3769,7 +3769,7 @@
       <c r="L141" s="18"/>
       <c r="M141"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" s="7"/>
       <c r="B142" s="6"/>
       <c r="C142" s="8"/>
@@ -3784,7 +3784,7 @@
       <c r="L142" s="18"/>
       <c r="M142"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" s="7"/>
       <c r="B143" s="6"/>
       <c r="C143" s="8"/>
@@ -3799,7 +3799,7 @@
       <c r="L143" s="18"/>
       <c r="M143"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" s="7"/>
       <c r="B144" s="6"/>
       <c r="C144" s="8"/>
@@ -3814,7 +3814,7 @@
       <c r="L144" s="18"/>
       <c r="M144"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" s="7"/>
       <c r="B145" s="6"/>
       <c r="C145" s="8"/>
@@ -3829,7 +3829,7 @@
       <c r="L145" s="18"/>
       <c r="M145"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" s="7"/>
       <c r="B146" s="6"/>
       <c r="C146" s="8"/>
@@ -3844,7 +3844,7 @@
       <c r="L146" s="18"/>
       <c r="M146"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" s="7"/>
       <c r="B147" s="6"/>
       <c r="C147" s="8"/>
@@ -3859,7 +3859,7 @@
       <c r="L147" s="18"/>
       <c r="M147"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" s="7"/>
       <c r="B148" s="6"/>
       <c r="C148" s="8"/>
@@ -3874,7 +3874,7 @@
       <c r="L148" s="18"/>
       <c r="M148"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" s="7"/>
       <c r="B149" s="6"/>
       <c r="C149" s="8"/>
@@ -3889,7 +3889,7 @@
       <c r="L149" s="18"/>
       <c r="M149"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" s="7"/>
       <c r="B150" s="6"/>
       <c r="C150" s="8"/>
@@ -3904,7 +3904,7 @@
       <c r="L150" s="18"/>
       <c r="M150"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" s="7"/>
       <c r="B151" s="6"/>
       <c r="C151" s="8"/>
@@ -3919,7 +3919,7 @@
       <c r="L151" s="18"/>
       <c r="M151"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" s="7"/>
       <c r="B152" s="6"/>
       <c r="C152" s="8"/>
@@ -3934,7 +3934,7 @@
       <c r="L152" s="18"/>
       <c r="M152"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" s="7"/>
       <c r="B153" s="6"/>
       <c r="C153" s="8"/>
@@ -3949,7 +3949,7 @@
       <c r="L153" s="18"/>
       <c r="M153"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" s="7"/>
       <c r="B154" s="6"/>
       <c r="C154" s="8"/>
@@ -3964,7 +3964,7 @@
       <c r="L154" s="18"/>
       <c r="M154"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" s="7"/>
       <c r="B155" s="6"/>
       <c r="C155" s="8"/>
@@ -3979,7 +3979,7 @@
       <c r="L155" s="18"/>
       <c r="M155"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" s="7"/>
       <c r="B156" s="6"/>
       <c r="C156" s="8"/>
@@ -3994,7 +3994,7 @@
       <c r="L156" s="18"/>
       <c r="M156"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" s="7"/>
       <c r="B157" s="6"/>
       <c r="C157" s="8"/>
@@ -4009,7 +4009,7 @@
       <c r="L157" s="18"/>
       <c r="M157"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" s="7"/>
       <c r="B158" s="6"/>
       <c r="C158" s="8"/>
@@ -4024,7 +4024,7 @@
       <c r="L158" s="18"/>
       <c r="M158"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" s="7"/>
       <c r="B159" s="6"/>
       <c r="C159" s="8"/>
@@ -4039,7 +4039,7 @@
       <c r="L159" s="18"/>
       <c r="M159"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" s="7"/>
       <c r="B160" s="6"/>
       <c r="C160" s="8"/>
@@ -4054,7 +4054,7 @@
       <c r="L160" s="18"/>
       <c r="M160"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" s="7"/>
       <c r="B161" s="6"/>
       <c r="C161" s="8"/>
@@ -4069,7 +4069,7 @@
       <c r="L161" s="18"/>
       <c r="M161"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" s="7"/>
       <c r="B162" s="6"/>
       <c r="C162" s="8"/>
@@ -4084,7 +4084,7 @@
       <c r="L162" s="18"/>
       <c r="M162"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" s="7"/>
       <c r="B163" s="6"/>
       <c r="C163" s="8"/>
@@ -4099,7 +4099,7 @@
       <c r="L163" s="18"/>
       <c r="M163"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" s="7"/>
       <c r="B164" s="6"/>
       <c r="C164" s="8"/>
@@ -4114,7 +4114,7 @@
       <c r="L164" s="18"/>
       <c r="M164"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" s="7"/>
       <c r="B165" s="6"/>
       <c r="C165" s="8"/>
@@ -4129,7 +4129,7 @@
       <c r="L165" s="18"/>
       <c r="M165"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" s="7"/>
       <c r="B166" s="6"/>
       <c r="C166" s="8"/>
@@ -4144,7 +4144,7 @@
       <c r="L166" s="18"/>
       <c r="M166"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" s="7"/>
       <c r="B167" s="6"/>
       <c r="C167" s="8"/>
@@ -4159,7 +4159,7 @@
       <c r="L167" s="18"/>
       <c r="M167"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" s="7"/>
       <c r="B168" s="6"/>
       <c r="C168" s="8"/>
@@ -4174,7 +4174,7 @@
       <c r="L168" s="18"/>
       <c r="M168"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" s="7"/>
       <c r="B169" s="6"/>
       <c r="C169" s="8"/>
@@ -4189,7 +4189,7 @@
       <c r="L169" s="18"/>
       <c r="M169"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" s="7"/>
       <c r="B170" s="6"/>
       <c r="C170" s="8"/>
@@ -4204,7 +4204,7 @@
       <c r="L170" s="18"/>
       <c r="M170"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" s="7"/>
       <c r="B171" s="6"/>
       <c r="C171" s="8"/>
@@ -4219,7 +4219,7 @@
       <c r="L171" s="18"/>
       <c r="M171"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" s="7"/>
       <c r="B172" s="6"/>
       <c r="C172" s="8"/>
@@ -4234,7 +4234,7 @@
       <c r="L172" s="18"/>
       <c r="M172"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" s="7"/>
       <c r="B173" s="6"/>
       <c r="C173" s="8"/>
@@ -4249,7 +4249,7 @@
       <c r="L173" s="18"/>
       <c r="M173"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" s="7"/>
       <c r="B174" s="6"/>
       <c r="C174" s="8"/>
@@ -4264,7 +4264,7 @@
       <c r="L174" s="18"/>
       <c r="M174"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" s="7"/>
       <c r="B175" s="6"/>
       <c r="C175" s="8"/>
@@ -4279,7 +4279,7 @@
       <c r="L175" s="18"/>
       <c r="M175"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" s="7"/>
       <c r="B176" s="6"/>
       <c r="C176" s="8"/>
@@ -4294,7 +4294,7 @@
       <c r="L176" s="18"/>
       <c r="M176"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" s="7"/>
       <c r="B177" s="6"/>
       <c r="C177" s="8"/>
@@ -4309,7 +4309,7 @@
       <c r="L177" s="18"/>
       <c r="M177"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" s="7"/>
       <c r="B178" s="6"/>
       <c r="C178" s="8"/>
@@ -4324,7 +4324,7 @@
       <c r="L178" s="18"/>
       <c r="M178"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" s="7"/>
       <c r="B179" s="6"/>
       <c r="C179" s="8"/>
@@ -4339,7 +4339,7 @@
       <c r="L179" s="18"/>
       <c r="M179"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" s="7"/>
       <c r="B180" s="6"/>
       <c r="C180" s="8"/>
@@ -4354,7 +4354,7 @@
       <c r="L180" s="18"/>
       <c r="M180"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" s="7"/>
       <c r="B181" s="6"/>
       <c r="C181" s="8"/>
@@ -4369,7 +4369,7 @@
       <c r="L181" s="18"/>
       <c r="M181"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" s="7"/>
       <c r="B182" s="6"/>
       <c r="C182" s="8"/>
@@ -4384,7 +4384,7 @@
       <c r="L182" s="18"/>
       <c r="M182"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" s="7"/>
       <c r="B183" s="6"/>
       <c r="C183" s="8"/>
@@ -4399,7 +4399,7 @@
       <c r="L183" s="18"/>
       <c r="M183"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" s="7"/>
       <c r="B184" s="6"/>
       <c r="C184" s="8"/>
@@ -4414,7 +4414,7 @@
       <c r="L184" s="18"/>
       <c r="M184"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" s="7"/>
       <c r="B185" s="6"/>
       <c r="C185" s="8"/>
@@ -4429,7 +4429,7 @@
       <c r="L185" s="18"/>
       <c r="M185"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" s="7"/>
       <c r="B186" s="6"/>
       <c r="C186" s="8"/>
@@ -4444,7 +4444,7 @@
       <c r="L186" s="18"/>
       <c r="M186"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187" s="7"/>
       <c r="B187" s="6"/>
       <c r="C187" s="8"/>
@@ -4459,7 +4459,7 @@
       <c r="L187" s="18"/>
       <c r="M187"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" s="7"/>
       <c r="B188" s="6"/>
       <c r="C188" s="8"/>
@@ -4474,7 +4474,7 @@
       <c r="L188" s="18"/>
       <c r="M188"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" s="7"/>
       <c r="B189" s="6"/>
       <c r="C189" s="8"/>
@@ -4489,7 +4489,7 @@
       <c r="L189" s="18"/>
       <c r="M189"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" s="7"/>
       <c r="B190" s="6"/>
       <c r="C190" s="8"/>
@@ -4504,7 +4504,7 @@
       <c r="L190" s="18"/>
       <c r="M190"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" s="7"/>
       <c r="B191" s="6"/>
       <c r="C191" s="8"/>
@@ -4519,7 +4519,7 @@
       <c r="L191" s="18"/>
       <c r="M191"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" s="7"/>
       <c r="B192" s="6"/>
       <c r="C192" s="8"/>
@@ -4534,7 +4534,7 @@
       <c r="L192" s="18"/>
       <c r="M192"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" s="7"/>
       <c r="B193" s="6"/>
       <c r="C193" s="8"/>
@@ -4549,7 +4549,7 @@
       <c r="L193" s="18"/>
       <c r="M193"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" s="7"/>
       <c r="B194" s="6"/>
       <c r="C194" s="8"/>
@@ -4564,7 +4564,7 @@
       <c r="L194" s="18"/>
       <c r="M194"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" s="7"/>
       <c r="B195" s="6"/>
       <c r="C195" s="8"/>
@@ -4579,7 +4579,7 @@
       <c r="L195" s="18"/>
       <c r="M195"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" s="7"/>
       <c r="B196" s="6"/>
       <c r="C196" s="8"/>
@@ -4594,7 +4594,7 @@
       <c r="L196" s="18"/>
       <c r="M196"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" s="7"/>
       <c r="B197" s="6"/>
       <c r="C197" s="8"/>
@@ -4609,7 +4609,7 @@
       <c r="L197" s="18"/>
       <c r="M197"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" s="7"/>
       <c r="B198" s="6"/>
       <c r="C198" s="8"/>
@@ -4624,7 +4624,7 @@
       <c r="L198" s="18"/>
       <c r="M198"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" s="7"/>
       <c r="B199" s="6"/>
       <c r="C199" s="8"/>
@@ -4639,7 +4639,7 @@
       <c r="L199" s="18"/>
       <c r="M199"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" s="7"/>
       <c r="B200" s="6"/>
       <c r="C200" s="8"/>
@@ -4654,7 +4654,7 @@
       <c r="L200" s="18"/>
       <c r="M200"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" s="9"/>
       <c r="B201" s="16"/>
       <c r="C201" s="10"/>
@@ -4699,7 +4699,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="25.75" style="17" customWidth="1"/>
     <col min="4" max="7" width="25.75" style="1" customWidth="1"/>
@@ -4707,7 +4707,7 @@
     <col min="9" max="9" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -4747,7 +4747,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -4758,7 +4758,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -4769,7 +4769,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -4780,7 +4780,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -4791,7 +4791,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -4802,7 +4802,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -4813,7 +4813,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -4824,7 +4824,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -4835,7 +4835,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -4846,7 +4846,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -4857,7 +4857,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -4868,7 +4868,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -4879,7 +4879,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -4890,7 +4890,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -4901,7 +4901,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -4912,7 +4912,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -4923,7 +4923,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -4934,7 +4934,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -4945,7 +4945,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -4956,7 +4956,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -4967,7 +4967,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -4978,7 +4978,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -4989,7 +4989,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -5000,7 +5000,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -5011,7 +5011,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -5022,7 +5022,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -5033,7 +5033,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -5044,7 +5044,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -5055,7 +5055,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -5066,7 +5066,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -5077,7 +5077,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -5088,7 +5088,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -5099,7 +5099,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -5110,7 +5110,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -5121,7 +5121,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -5132,7 +5132,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -5143,7 +5143,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -5154,7 +5154,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -5165,7 +5165,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -5176,7 +5176,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -5187,7 +5187,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -5198,7 +5198,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -5209,7 +5209,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -5220,7 +5220,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -5231,7 +5231,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -5242,7 +5242,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -5253,7 +5253,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -5264,7 +5264,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -5275,7 +5275,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -5286,7 +5286,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -5297,7 +5297,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -5308,7 +5308,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -5319,7 +5319,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -5330,7 +5330,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -5341,7 +5341,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -5352,7 +5352,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -5363,7 +5363,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -5374,7 +5374,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -5385,7 +5385,7 @@
       <c r="H60" s="8"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -5396,7 +5396,7 @@
       <c r="H61" s="8"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -5407,7 +5407,7 @@
       <c r="H62" s="8"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -5418,7 +5418,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -5429,7 +5429,7 @@
       <c r="H64" s="8"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -5440,7 +5440,7 @@
       <c r="H65" s="8"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -5451,7 +5451,7 @@
       <c r="H66" s="8"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -5462,7 +5462,7 @@
       <c r="H67" s="8"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -5473,7 +5473,7 @@
       <c r="H68" s="8"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -5484,7 +5484,7 @@
       <c r="H69" s="8"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -5495,7 +5495,7 @@
       <c r="H70" s="8"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -5506,7 +5506,7 @@
       <c r="H71" s="8"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -5517,7 +5517,7 @@
       <c r="H72" s="8"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -5528,7 +5528,7 @@
       <c r="H73" s="8"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -5539,7 +5539,7 @@
       <c r="H74" s="8"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -5550,7 +5550,7 @@
       <c r="H75" s="8"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -5561,7 +5561,7 @@
       <c r="H76" s="8"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -5572,7 +5572,7 @@
       <c r="H77" s="8"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -5583,7 +5583,7 @@
       <c r="H78" s="8"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -5594,7 +5594,7 @@
       <c r="H79" s="8"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -5605,7 +5605,7 @@
       <c r="H80" s="8"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -5616,7 +5616,7 @@
       <c r="H81" s="8"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -5627,7 +5627,7 @@
       <c r="H82" s="8"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -5638,7 +5638,7 @@
       <c r="H83" s="8"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -5649,7 +5649,7 @@
       <c r="H84" s="8"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -5660,7 +5660,7 @@
       <c r="H85" s="8"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -5671,7 +5671,7 @@
       <c r="H86" s="8"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -5682,7 +5682,7 @@
       <c r="H87" s="8"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -5693,7 +5693,7 @@
       <c r="H88" s="8"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -5704,7 +5704,7 @@
       <c r="H89" s="8"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -5715,7 +5715,7 @@
       <c r="H90" s="8"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -5726,7 +5726,7 @@
       <c r="H91" s="8"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -5737,7 +5737,7 @@
       <c r="H92" s="8"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -5748,7 +5748,7 @@
       <c r="H93" s="8"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -5759,7 +5759,7 @@
       <c r="H94" s="8"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -5770,7 +5770,7 @@
       <c r="H95" s="8"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -5781,7 +5781,7 @@
       <c r="H96" s="8"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -5792,7 +5792,7 @@
       <c r="H97" s="8"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -5803,7 +5803,7 @@
       <c r="H98" s="8"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -5814,7 +5814,7 @@
       <c r="H99" s="8"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -5825,7 +5825,7 @@
       <c r="H100" s="8"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -5836,7 +5836,7 @@
       <c r="H101" s="8"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -5847,7 +5847,7 @@
       <c r="H102" s="8"/>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -5858,7 +5858,7 @@
       <c r="H103" s="8"/>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -5869,7 +5869,7 @@
       <c r="H104" s="8"/>
       <c r="I104" s="6"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -5880,7 +5880,7 @@
       <c r="H105" s="8"/>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -5891,7 +5891,7 @@
       <c r="H106" s="8"/>
       <c r="I106" s="6"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -5902,7 +5902,7 @@
       <c r="H107" s="8"/>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -5913,7 +5913,7 @@
       <c r="H108" s="8"/>
       <c r="I108" s="6"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -5924,7 +5924,7 @@
       <c r="H109" s="8"/>
       <c r="I109" s="6"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -5935,7 +5935,7 @@
       <c r="H110" s="8"/>
       <c r="I110" s="6"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -5946,7 +5946,7 @@
       <c r="H111" s="8"/>
       <c r="I111" s="6"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -5957,7 +5957,7 @@
       <c r="H112" s="8"/>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -5968,7 +5968,7 @@
       <c r="H113" s="8"/>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -5979,7 +5979,7 @@
       <c r="H114" s="8"/>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -5990,7 +5990,7 @@
       <c r="H115" s="8"/>
       <c r="I115" s="6"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -6001,7 +6001,7 @@
       <c r="H116" s="8"/>
       <c r="I116" s="6"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -6012,7 +6012,7 @@
       <c r="H117" s="8"/>
       <c r="I117" s="6"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -6023,7 +6023,7 @@
       <c r="H118" s="8"/>
       <c r="I118" s="6"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -6034,7 +6034,7 @@
       <c r="H119" s="8"/>
       <c r="I119" s="6"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -6045,7 +6045,7 @@
       <c r="H120" s="8"/>
       <c r="I120" s="6"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -6056,7 +6056,7 @@
       <c r="H121" s="8"/>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -6067,7 +6067,7 @@
       <c r="H122" s="8"/>
       <c r="I122" s="6"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -6078,7 +6078,7 @@
       <c r="H123" s="8"/>
       <c r="I123" s="6"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -6089,7 +6089,7 @@
       <c r="H124" s="8"/>
       <c r="I124" s="6"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -6100,7 +6100,7 @@
       <c r="H125" s="8"/>
       <c r="I125" s="6"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -6111,7 +6111,7 @@
       <c r="H126" s="8"/>
       <c r="I126" s="6"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -6122,7 +6122,7 @@
       <c r="H127" s="8"/>
       <c r="I127" s="6"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -6133,7 +6133,7 @@
       <c r="H128" s="8"/>
       <c r="I128" s="6"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -6144,7 +6144,7 @@
       <c r="H129" s="8"/>
       <c r="I129" s="6"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -6155,7 +6155,7 @@
       <c r="H130" s="8"/>
       <c r="I130" s="6"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -6166,7 +6166,7 @@
       <c r="H131" s="8"/>
       <c r="I131" s="6"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -6177,7 +6177,7 @@
       <c r="H132" s="8"/>
       <c r="I132" s="6"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -6188,7 +6188,7 @@
       <c r="H133" s="8"/>
       <c r="I133" s="6"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -6199,7 +6199,7 @@
       <c r="H134" s="8"/>
       <c r="I134" s="6"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -6210,7 +6210,7 @@
       <c r="H135" s="8"/>
       <c r="I135" s="6"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -6221,7 +6221,7 @@
       <c r="H136" s="8"/>
       <c r="I136" s="6"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -6232,7 +6232,7 @@
       <c r="H137" s="8"/>
       <c r="I137" s="6"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -6243,7 +6243,7 @@
       <c r="H138" s="8"/>
       <c r="I138" s="6"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -6254,7 +6254,7 @@
       <c r="H139" s="8"/>
       <c r="I139" s="6"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -6265,7 +6265,7 @@
       <c r="H140" s="8"/>
       <c r="I140" s="6"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -6276,7 +6276,7 @@
       <c r="H141" s="8"/>
       <c r="I141" s="6"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -6287,7 +6287,7 @@
       <c r="H142" s="8"/>
       <c r="I142" s="6"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -6298,7 +6298,7 @@
       <c r="H143" s="8"/>
       <c r="I143" s="6"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -6309,7 +6309,7 @@
       <c r="H144" s="8"/>
       <c r="I144" s="6"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -6320,7 +6320,7 @@
       <c r="H145" s="8"/>
       <c r="I145" s="6"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -6331,7 +6331,7 @@
       <c r="H146" s="8"/>
       <c r="I146" s="6"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -6342,7 +6342,7 @@
       <c r="H147" s="8"/>
       <c r="I147" s="6"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -6353,7 +6353,7 @@
       <c r="H148" s="8"/>
       <c r="I148" s="6"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -6364,7 +6364,7 @@
       <c r="H149" s="8"/>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -6375,7 +6375,7 @@
       <c r="H150" s="8"/>
       <c r="I150" s="6"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -6386,7 +6386,7 @@
       <c r="H151" s="8"/>
       <c r="I151" s="6"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -6397,7 +6397,7 @@
       <c r="H152" s="8"/>
       <c r="I152" s="6"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -6408,7 +6408,7 @@
       <c r="H153" s="8"/>
       <c r="I153" s="6"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -6419,7 +6419,7 @@
       <c r="H154" s="8"/>
       <c r="I154" s="6"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -6430,7 +6430,7 @@
       <c r="H155" s="8"/>
       <c r="I155" s="6"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -6441,7 +6441,7 @@
       <c r="H156" s="8"/>
       <c r="I156" s="6"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -6452,7 +6452,7 @@
       <c r="H157" s="8"/>
       <c r="I157" s="6"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -6463,7 +6463,7 @@
       <c r="H158" s="8"/>
       <c r="I158" s="6"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -6474,7 +6474,7 @@
       <c r="H159" s="8"/>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -6485,7 +6485,7 @@
       <c r="H160" s="8"/>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -6496,7 +6496,7 @@
       <c r="H161" s="8"/>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
@@ -6507,7 +6507,7 @@
       <c r="H162" s="8"/>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -6518,7 +6518,7 @@
       <c r="H163" s="8"/>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -6529,7 +6529,7 @@
       <c r="H164" s="8"/>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
@@ -6540,7 +6540,7 @@
       <c r="H165" s="8"/>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
@@ -6551,7 +6551,7 @@
       <c r="H166" s="8"/>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
@@ -6562,7 +6562,7 @@
       <c r="H167" s="8"/>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
@@ -6573,7 +6573,7 @@
       <c r="H168" s="8"/>
       <c r="I168" s="6"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
@@ -6584,7 +6584,7 @@
       <c r="H169" s="8"/>
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
@@ -6595,7 +6595,7 @@
       <c r="H170" s="8"/>
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
@@ -6606,7 +6606,7 @@
       <c r="H171" s="8"/>
       <c r="I171" s="6"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
@@ -6617,7 +6617,7 @@
       <c r="H172" s="8"/>
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
@@ -6628,7 +6628,7 @@
       <c r="H173" s="8"/>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
@@ -6639,7 +6639,7 @@
       <c r="H174" s="8"/>
       <c r="I174" s="6"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
@@ -6650,7 +6650,7 @@
       <c r="H175" s="8"/>
       <c r="I175" s="6"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
@@ -6661,7 +6661,7 @@
       <c r="H176" s="8"/>
       <c r="I176" s="6"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
@@ -6672,7 +6672,7 @@
       <c r="H177" s="8"/>
       <c r="I177" s="6"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
@@ -6683,7 +6683,7 @@
       <c r="H178" s="8"/>
       <c r="I178" s="6"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
@@ -6694,7 +6694,7 @@
       <c r="H179" s="8"/>
       <c r="I179" s="6"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
@@ -6705,7 +6705,7 @@
       <c r="H180" s="8"/>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
@@ -6716,7 +6716,7 @@
       <c r="H181" s="8"/>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
@@ -6727,7 +6727,7 @@
       <c r="H182" s="8"/>
       <c r="I182" s="6"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
@@ -6738,7 +6738,7 @@
       <c r="H183" s="8"/>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
@@ -6749,7 +6749,7 @@
       <c r="H184" s="8"/>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
@@ -6760,7 +6760,7 @@
       <c r="H185" s="8"/>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
@@ -6771,7 +6771,7 @@
       <c r="H186" s="8"/>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
@@ -6782,7 +6782,7 @@
       <c r="H187" s="8"/>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
@@ -6793,7 +6793,7 @@
       <c r="H188" s="8"/>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
@@ -6804,7 +6804,7 @@
       <c r="H189" s="8"/>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
@@ -6815,7 +6815,7 @@
       <c r="H190" s="8"/>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
@@ -6826,7 +6826,7 @@
       <c r="H191" s="8"/>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
@@ -6837,7 +6837,7 @@
       <c r="H192" s="8"/>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
@@ -6848,7 +6848,7 @@
       <c r="H193" s="8"/>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
@@ -6859,7 +6859,7 @@
       <c r="H194" s="8"/>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
@@ -6870,7 +6870,7 @@
       <c r="H195" s="8"/>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
@@ -6881,7 +6881,7 @@
       <c r="H196" s="8"/>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
@@ -6892,7 +6892,7 @@
       <c r="H197" s="8"/>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
@@ -6903,7 +6903,7 @@
       <c r="H198" s="8"/>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
@@ -6914,7 +6914,7 @@
       <c r="H199" s="8"/>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
@@ -6925,7 +6925,7 @@
       <c r="H200" s="8"/>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -6960,7 +6960,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="17" customWidth="1"/>
@@ -6969,7 +6969,7 @@
     <col min="5" max="5" width="45.75" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -6986,1400 +6986,1400 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="15"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" s="14"/>
       <c r="C19" s="11"/>
       <c r="D19" s="15"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="14"/>
       <c r="C20" s="11"/>
       <c r="D20" s="15"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="14"/>
       <c r="C30" s="11"/>
       <c r="D30" s="15"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="14"/>
       <c r="C31" s="11"/>
       <c r="D31" s="15"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="14"/>
       <c r="C32" s="11"/>
       <c r="D32" s="15"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="B33" s="14"/>
       <c r="C33" s="11"/>
       <c r="D33" s="15"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="11"/>
       <c r="B34" s="14"/>
       <c r="C34" s="11"/>
       <c r="D34" s="15"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="11"/>
       <c r="B35" s="14"/>
       <c r="C35" s="11"/>
       <c r="D35" s="15"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="B36" s="14"/>
       <c r="C36" s="11"/>
       <c r="D36" s="15"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="11"/>
       <c r="B37" s="14"/>
       <c r="C37" s="11"/>
       <c r="D37" s="15"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
       <c r="B38" s="14"/>
       <c r="C38" s="11"/>
       <c r="D38" s="15"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="11"/>
       <c r="B39" s="14"/>
       <c r="C39" s="11"/>
       <c r="D39" s="15"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="11"/>
       <c r="B40" s="14"/>
       <c r="C40" s="11"/>
       <c r="D40" s="15"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="11"/>
       <c r="B41" s="14"/>
       <c r="C41" s="11"/>
       <c r="D41" s="15"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="11"/>
       <c r="B42" s="14"/>
       <c r="C42" s="11"/>
       <c r="D42" s="15"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="11"/>
       <c r="B43" s="14"/>
       <c r="C43" s="11"/>
       <c r="D43" s="15"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
       <c r="B44" s="14"/>
       <c r="C44" s="11"/>
       <c r="D44" s="15"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="14"/>
       <c r="C45" s="11"/>
       <c r="D45" s="15"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="11"/>
       <c r="B46" s="14"/>
       <c r="C46" s="11"/>
       <c r="D46" s="15"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="11"/>
       <c r="B47" s="14"/>
       <c r="C47" s="11"/>
       <c r="D47" s="15"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="11"/>
       <c r="B48" s="14"/>
       <c r="C48" s="11"/>
       <c r="D48" s="15"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="11"/>
       <c r="B49" s="14"/>
       <c r="C49" s="11"/>
       <c r="D49" s="15"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="11"/>
       <c r="B50" s="14"/>
       <c r="C50" s="11"/>
       <c r="D50" s="15"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="11"/>
       <c r="B51" s="14"/>
       <c r="C51" s="11"/>
       <c r="D51" s="15"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="11"/>
       <c r="B52" s="14"/>
       <c r="C52" s="11"/>
       <c r="D52" s="15"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="11"/>
       <c r="B53" s="14"/>
       <c r="C53" s="11"/>
       <c r="D53" s="15"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="11"/>
       <c r="B54" s="14"/>
       <c r="C54" s="11"/>
       <c r="D54" s="15"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="11"/>
       <c r="B55" s="14"/>
       <c r="C55" s="11"/>
       <c r="D55" s="15"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="11"/>
       <c r="B56" s="14"/>
       <c r="C56" s="11"/>
       <c r="D56" s="15"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="11"/>
       <c r="B57" s="14"/>
       <c r="C57" s="11"/>
       <c r="D57" s="15"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="11"/>
       <c r="B58" s="14"/>
       <c r="C58" s="11"/>
       <c r="D58" s="15"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="11"/>
       <c r="B59" s="14"/>
       <c r="C59" s="11"/>
       <c r="D59" s="15"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="11"/>
       <c r="B60" s="14"/>
       <c r="C60" s="11"/>
       <c r="D60" s="15"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="11"/>
       <c r="B61" s="14"/>
       <c r="C61" s="11"/>
       <c r="D61" s="15"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="11"/>
       <c r="B62" s="14"/>
       <c r="C62" s="11"/>
       <c r="D62" s="15"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="11"/>
       <c r="B63" s="14"/>
       <c r="C63" s="11"/>
       <c r="D63" s="15"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="11"/>
       <c r="B64" s="14"/>
       <c r="C64" s="11"/>
       <c r="D64" s="15"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="11"/>
       <c r="B65" s="14"/>
       <c r="C65" s="11"/>
       <c r="D65" s="15"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="11"/>
       <c r="B66" s="14"/>
       <c r="C66" s="11"/>
       <c r="D66" s="15"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="11"/>
       <c r="B67" s="14"/>
       <c r="C67" s="11"/>
       <c r="D67" s="15"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="11"/>
       <c r="B68" s="14"/>
       <c r="C68" s="11"/>
       <c r="D68" s="15"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="11"/>
       <c r="B69" s="14"/>
       <c r="C69" s="11"/>
       <c r="D69" s="15"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="11"/>
       <c r="B70" s="14"/>
       <c r="C70" s="11"/>
       <c r="D70" s="15"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="11"/>
       <c r="B71" s="14"/>
       <c r="C71" s="11"/>
       <c r="D71" s="15"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="11"/>
       <c r="B72" s="14"/>
       <c r="C72" s="11"/>
       <c r="D72" s="15"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="11"/>
       <c r="B73" s="14"/>
       <c r="C73" s="11"/>
       <c r="D73" s="15"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
       <c r="B74" s="14"/>
       <c r="C74" s="11"/>
       <c r="D74" s="15"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="11"/>
       <c r="B75" s="14"/>
       <c r="C75" s="11"/>
       <c r="D75" s="15"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="11"/>
       <c r="B76" s="14"/>
       <c r="C76" s="11"/>
       <c r="D76" s="15"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="11"/>
       <c r="B77" s="14"/>
       <c r="C77" s="11"/>
       <c r="D77" s="15"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="11"/>
       <c r="B78" s="14"/>
       <c r="C78" s="11"/>
       <c r="D78" s="15"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="11"/>
       <c r="B79" s="14"/>
       <c r="C79" s="11"/>
       <c r="D79" s="15"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="11"/>
       <c r="B80" s="14"/>
       <c r="C80" s="11"/>
       <c r="D80" s="15"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="11"/>
       <c r="B81" s="14"/>
       <c r="C81" s="11"/>
       <c r="D81" s="15"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="11"/>
       <c r="B82" s="14"/>
       <c r="C82" s="11"/>
       <c r="D82" s="15"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="11"/>
       <c r="B83" s="14"/>
       <c r="C83" s="11"/>
       <c r="D83" s="15"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="11"/>
       <c r="B84" s="14"/>
       <c r="C84" s="11"/>
       <c r="D84" s="15"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="11"/>
       <c r="B85" s="14"/>
       <c r="C85" s="11"/>
       <c r="D85" s="15"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="11"/>
       <c r="B86" s="14"/>
       <c r="C86" s="11"/>
       <c r="D86" s="15"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="11"/>
       <c r="B87" s="14"/>
       <c r="C87" s="11"/>
       <c r="D87" s="15"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="11"/>
       <c r="B88" s="14"/>
       <c r="C88" s="11"/>
       <c r="D88" s="15"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="11"/>
       <c r="B89" s="14"/>
       <c r="C89" s="11"/>
       <c r="D89" s="15"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="11"/>
       <c r="B90" s="14"/>
       <c r="C90" s="11"/>
       <c r="D90" s="15"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="11"/>
       <c r="B91" s="14"/>
       <c r="C91" s="11"/>
       <c r="D91" s="15"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="11"/>
       <c r="B92" s="14"/>
       <c r="C92" s="11"/>
       <c r="D92" s="15"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="11"/>
       <c r="B93" s="14"/>
       <c r="C93" s="11"/>
       <c r="D93" s="15"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="11"/>
       <c r="B94" s="14"/>
       <c r="C94" s="11"/>
       <c r="D94" s="15"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="11"/>
       <c r="B95" s="14"/>
       <c r="C95" s="11"/>
       <c r="D95" s="15"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="11"/>
       <c r="B96" s="14"/>
       <c r="C96" s="11"/>
       <c r="D96" s="15"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="11"/>
       <c r="B97" s="14"/>
       <c r="C97" s="11"/>
       <c r="D97" s="15"/>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="11"/>
       <c r="B98" s="14"/>
       <c r="C98" s="11"/>
       <c r="D98" s="15"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="11"/>
       <c r="B99" s="14"/>
       <c r="C99" s="11"/>
       <c r="D99" s="15"/>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="11"/>
       <c r="B100" s="14"/>
       <c r="C100" s="11"/>
       <c r="D100" s="15"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="11"/>
       <c r="B101" s="14"/>
       <c r="C101" s="11"/>
       <c r="D101" s="15"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="11"/>
       <c r="B102" s="14"/>
       <c r="C102" s="11"/>
       <c r="D102" s="15"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="11"/>
       <c r="B103" s="14"/>
       <c r="C103" s="11"/>
       <c r="D103" s="15"/>
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="11"/>
       <c r="B104" s="14"/>
       <c r="C104" s="11"/>
       <c r="D104" s="15"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="11"/>
       <c r="B105" s="14"/>
       <c r="C105" s="11"/>
       <c r="D105" s="15"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="11"/>
       <c r="B106" s="14"/>
       <c r="C106" s="11"/>
       <c r="D106" s="15"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="11"/>
       <c r="B107" s="14"/>
       <c r="C107" s="11"/>
       <c r="D107" s="15"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="11"/>
       <c r="B108" s="14"/>
       <c r="C108" s="11"/>
       <c r="D108" s="15"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
       <c r="B109" s="14"/>
       <c r="C109" s="11"/>
       <c r="D109" s="15"/>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="11"/>
       <c r="B110" s="14"/>
       <c r="C110" s="11"/>
       <c r="D110" s="15"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="11"/>
       <c r="B111" s="14"/>
       <c r="C111" s="11"/>
       <c r="D111" s="15"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="11"/>
       <c r="B112" s="14"/>
       <c r="C112" s="11"/>
       <c r="D112" s="15"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="11"/>
       <c r="B113" s="14"/>
       <c r="C113" s="11"/>
       <c r="D113" s="15"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="11"/>
       <c r="B114" s="14"/>
       <c r="C114" s="11"/>
       <c r="D114" s="15"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="11"/>
       <c r="B115" s="14"/>
       <c r="C115" s="11"/>
       <c r="D115" s="15"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="11"/>
       <c r="B116" s="14"/>
       <c r="C116" s="11"/>
       <c r="D116" s="15"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="11"/>
       <c r="B117" s="14"/>
       <c r="C117" s="11"/>
       <c r="D117" s="15"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="11"/>
       <c r="B118" s="14"/>
       <c r="C118" s="11"/>
       <c r="D118" s="15"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="11"/>
       <c r="B119" s="14"/>
       <c r="C119" s="11"/>
       <c r="D119" s="15"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="11"/>
       <c r="B120" s="14"/>
       <c r="C120" s="11"/>
       <c r="D120" s="15"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="11"/>
       <c r="B121" s="14"/>
       <c r="C121" s="11"/>
       <c r="D121" s="15"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="11"/>
       <c r="B122" s="14"/>
       <c r="C122" s="11"/>
       <c r="D122" s="15"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="11"/>
       <c r="B123" s="14"/>
       <c r="C123" s="11"/>
       <c r="D123" s="15"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="11"/>
       <c r="B124" s="14"/>
       <c r="C124" s="11"/>
       <c r="D124" s="15"/>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="11"/>
       <c r="B125" s="14"/>
       <c r="C125" s="11"/>
       <c r="D125" s="15"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="11"/>
       <c r="B126" s="14"/>
       <c r="C126" s="11"/>
       <c r="D126" s="15"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="11"/>
       <c r="B127" s="14"/>
       <c r="C127" s="11"/>
       <c r="D127" s="15"/>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="11"/>
       <c r="B128" s="14"/>
       <c r="C128" s="11"/>
       <c r="D128" s="15"/>
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="11"/>
       <c r="B129" s="14"/>
       <c r="C129" s="11"/>
       <c r="D129" s="15"/>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="11"/>
       <c r="B130" s="14"/>
       <c r="C130" s="11"/>
       <c r="D130" s="15"/>
       <c r="E130" s="6"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="11"/>
       <c r="B131" s="14"/>
       <c r="C131" s="11"/>
       <c r="D131" s="15"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="11"/>
       <c r="B132" s="14"/>
       <c r="C132" s="11"/>
       <c r="D132" s="15"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="11"/>
       <c r="B133" s="14"/>
       <c r="C133" s="11"/>
       <c r="D133" s="15"/>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="11"/>
       <c r="B134" s="14"/>
       <c r="C134" s="11"/>
       <c r="D134" s="15"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="11"/>
       <c r="B135" s="14"/>
       <c r="C135" s="11"/>
       <c r="D135" s="15"/>
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="11"/>
       <c r="B136" s="14"/>
       <c r="C136" s="11"/>
       <c r="D136" s="15"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="11"/>
       <c r="B137" s="14"/>
       <c r="C137" s="11"/>
       <c r="D137" s="15"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="11"/>
       <c r="B138" s="14"/>
       <c r="C138" s="11"/>
       <c r="D138" s="15"/>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="11"/>
       <c r="B139" s="14"/>
       <c r="C139" s="11"/>
       <c r="D139" s="15"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="11"/>
       <c r="B140" s="14"/>
       <c r="C140" s="11"/>
       <c r="D140" s="15"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="11"/>
       <c r="B141" s="14"/>
       <c r="C141" s="11"/>
       <c r="D141" s="15"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="11"/>
       <c r="B142" s="14"/>
       <c r="C142" s="11"/>
       <c r="D142" s="15"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="11"/>
       <c r="B143" s="14"/>
       <c r="C143" s="11"/>
       <c r="D143" s="15"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="11"/>
       <c r="B144" s="14"/>
       <c r="C144" s="11"/>
       <c r="D144" s="15"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="11"/>
       <c r="B145" s="14"/>
       <c r="C145" s="11"/>
       <c r="D145" s="15"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="11"/>
       <c r="B146" s="14"/>
       <c r="C146" s="11"/>
       <c r="D146" s="15"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="11"/>
       <c r="B147" s="14"/>
       <c r="C147" s="11"/>
       <c r="D147" s="15"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="11"/>
       <c r="B148" s="14"/>
       <c r="C148" s="11"/>
       <c r="D148" s="15"/>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="11"/>
       <c r="B149" s="14"/>
       <c r="C149" s="11"/>
       <c r="D149" s="15"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="11"/>
       <c r="B150" s="14"/>
       <c r="C150" s="11"/>
       <c r="D150" s="15"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="11"/>
       <c r="B151" s="14"/>
       <c r="C151" s="11"/>
       <c r="D151" s="15"/>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="11"/>
       <c r="B152" s="14"/>
       <c r="C152" s="11"/>
       <c r="D152" s="15"/>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="11"/>
       <c r="B153" s="14"/>
       <c r="C153" s="11"/>
       <c r="D153" s="15"/>
       <c r="E153" s="6"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="11"/>
       <c r="B154" s="14"/>
       <c r="C154" s="11"/>
       <c r="D154" s="15"/>
       <c r="E154" s="6"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="11"/>
       <c r="B155" s="14"/>
       <c r="C155" s="11"/>
       <c r="D155" s="15"/>
       <c r="E155" s="6"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="11"/>
       <c r="B156" s="14"/>
       <c r="C156" s="11"/>
       <c r="D156" s="15"/>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="11"/>
       <c r="B157" s="14"/>
       <c r="C157" s="11"/>
       <c r="D157" s="15"/>
       <c r="E157" s="6"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="11"/>
       <c r="B158" s="14"/>
       <c r="C158" s="11"/>
       <c r="D158" s="15"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="11"/>
       <c r="B159" s="14"/>
       <c r="C159" s="11"/>
       <c r="D159" s="15"/>
       <c r="E159" s="6"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="11"/>
       <c r="B160" s="14"/>
       <c r="C160" s="11"/>
       <c r="D160" s="15"/>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="11"/>
       <c r="B161" s="14"/>
       <c r="C161" s="11"/>
       <c r="D161" s="15"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="11"/>
       <c r="B162" s="14"/>
       <c r="C162" s="11"/>
       <c r="D162" s="15"/>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="11"/>
       <c r="B163" s="14"/>
       <c r="C163" s="11"/>
       <c r="D163" s="15"/>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="11"/>
       <c r="B164" s="14"/>
       <c r="C164" s="11"/>
       <c r="D164" s="15"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="11"/>
       <c r="B165" s="14"/>
       <c r="C165" s="11"/>
       <c r="D165" s="15"/>
       <c r="E165" s="6"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="11"/>
       <c r="B166" s="14"/>
       <c r="C166" s="11"/>
       <c r="D166" s="15"/>
       <c r="E166" s="6"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="11"/>
       <c r="B167" s="14"/>
       <c r="C167" s="11"/>
       <c r="D167" s="15"/>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="11"/>
       <c r="B168" s="14"/>
       <c r="C168" s="11"/>
       <c r="D168" s="15"/>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="11"/>
       <c r="B169" s="14"/>
       <c r="C169" s="11"/>
       <c r="D169" s="15"/>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="11"/>
       <c r="B170" s="14"/>
       <c r="C170" s="11"/>
       <c r="D170" s="15"/>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="11"/>
       <c r="B171" s="14"/>
       <c r="C171" s="11"/>
       <c r="D171" s="15"/>
       <c r="E171" s="6"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="11"/>
       <c r="B172" s="14"/>
       <c r="C172" s="11"/>
       <c r="D172" s="15"/>
       <c r="E172" s="6"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="11"/>
       <c r="B173" s="14"/>
       <c r="C173" s="11"/>
       <c r="D173" s="15"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="11"/>
       <c r="B174" s="14"/>
       <c r="C174" s="11"/>
       <c r="D174" s="15"/>
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="11"/>
       <c r="B175" s="14"/>
       <c r="C175" s="11"/>
       <c r="D175" s="15"/>
       <c r="E175" s="6"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="11"/>
       <c r="B176" s="14"/>
       <c r="C176" s="11"/>
       <c r="D176" s="15"/>
       <c r="E176" s="6"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="11"/>
       <c r="B177" s="14"/>
       <c r="C177" s="11"/>
       <c r="D177" s="15"/>
       <c r="E177" s="6"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="11"/>
       <c r="B178" s="14"/>
       <c r="C178" s="11"/>
       <c r="D178" s="15"/>
       <c r="E178" s="6"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="11"/>
       <c r="B179" s="14"/>
       <c r="C179" s="11"/>
       <c r="D179" s="15"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="11"/>
       <c r="B180" s="14"/>
       <c r="C180" s="11"/>
       <c r="D180" s="15"/>
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="11"/>
       <c r="B181" s="14"/>
       <c r="C181" s="11"/>
       <c r="D181" s="15"/>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="11"/>
       <c r="B182" s="14"/>
       <c r="C182" s="11"/>
       <c r="D182" s="15"/>
       <c r="E182" s="6"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="11"/>
       <c r="B183" s="14"/>
       <c r="C183" s="11"/>
       <c r="D183" s="15"/>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="11"/>
       <c r="B184" s="14"/>
       <c r="C184" s="11"/>
       <c r="D184" s="15"/>
       <c r="E184" s="6"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="11"/>
       <c r="B185" s="14"/>
       <c r="C185" s="11"/>
       <c r="D185" s="15"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="11"/>
       <c r="B186" s="14"/>
       <c r="C186" s="11"/>
       <c r="D186" s="15"/>
       <c r="E186" s="6"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="11"/>
       <c r="B187" s="14"/>
       <c r="C187" s="11"/>
       <c r="D187" s="15"/>
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="11"/>
       <c r="B188" s="14"/>
       <c r="C188" s="11"/>
       <c r="D188" s="15"/>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="11"/>
       <c r="B189" s="14"/>
       <c r="C189" s="11"/>
       <c r="D189" s="15"/>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="11"/>
       <c r="B190" s="14"/>
       <c r="C190" s="11"/>
       <c r="D190" s="15"/>
       <c r="E190" s="6"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="11"/>
       <c r="B191" s="14"/>
       <c r="C191" s="11"/>
       <c r="D191" s="15"/>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="11"/>
       <c r="B192" s="14"/>
       <c r="C192" s="11"/>
       <c r="D192" s="15"/>
       <c r="E192" s="6"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="11"/>
       <c r="B193" s="14"/>
       <c r="C193" s="11"/>
       <c r="D193" s="15"/>
       <c r="E193" s="6"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="11"/>
       <c r="B194" s="14"/>
       <c r="C194" s="11"/>
       <c r="D194" s="15"/>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="11"/>
       <c r="B195" s="14"/>
       <c r="C195" s="11"/>
       <c r="D195" s="15"/>
       <c r="E195" s="6"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="11"/>
       <c r="B196" s="14"/>
       <c r="C196" s="11"/>
       <c r="D196" s="15"/>
       <c r="E196" s="6"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="11"/>
       <c r="B197" s="14"/>
       <c r="C197" s="11"/>
       <c r="D197" s="15"/>
       <c r="E197" s="6"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="11"/>
       <c r="B198" s="14"/>
       <c r="C198" s="11"/>
       <c r="D198" s="15"/>
       <c r="E198" s="6"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="11"/>
       <c r="B199" s="14"/>
       <c r="C199" s="11"/>
       <c r="D199" s="15"/>
       <c r="E199" s="6"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="11"/>
       <c r="B200" s="14"/>
       <c r="C200" s="11"/>
       <c r="D200" s="15"/>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="11"/>
       <c r="B201" s="14"/>
       <c r="C201" s="11"/>
@@ -8413,14 +8413,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.75" style="17" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="20" customWidth="1"/>
     <col min="3" max="3" width="45.75" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -8431,1002 +8431,1002 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="14"/>
       <c r="B44" s="15"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="14"/>
       <c r="B45" s="15"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="14"/>
       <c r="B49" s="15"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="14"/>
       <c r="B50" s="15"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="14"/>
       <c r="B51" s="15"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="14"/>
       <c r="B55" s="15"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="14"/>
       <c r="B56" s="15"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="14"/>
       <c r="B57" s="15"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="14"/>
       <c r="B58" s="15"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="14"/>
       <c r="B59" s="15"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="14"/>
       <c r="B60" s="15"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="14"/>
       <c r="B61" s="15"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="14"/>
       <c r="B62" s="15"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="14"/>
       <c r="B63" s="15"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="14"/>
       <c r="B64" s="15"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="14"/>
       <c r="B65" s="15"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="14"/>
       <c r="B66" s="15"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="14"/>
       <c r="B67" s="15"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="14"/>
       <c r="B68" s="15"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="14"/>
       <c r="B69" s="15"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="14"/>
       <c r="B70" s="15"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="14"/>
       <c r="B71" s="15"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="14"/>
       <c r="B72" s="15"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="14"/>
       <c r="B73" s="15"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="14"/>
       <c r="B74" s="15"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="14"/>
       <c r="B75" s="15"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="14"/>
       <c r="B76" s="15"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="14"/>
       <c r="B77" s="15"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="14"/>
       <c r="B78" s="15"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="14"/>
       <c r="B79" s="15"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="14"/>
       <c r="B80" s="15"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="14"/>
       <c r="B81" s="15"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="14"/>
       <c r="B82" s="15"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="14"/>
       <c r="B83" s="15"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="14"/>
       <c r="B84" s="15"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="14"/>
       <c r="B85" s="15"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="14"/>
       <c r="B86" s="15"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="14"/>
       <c r="B87" s="15"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="14"/>
       <c r="B88" s="15"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="14"/>
       <c r="B89" s="15"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="14"/>
       <c r="B90" s="15"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="14"/>
       <c r="B91" s="15"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="14"/>
       <c r="B92" s="15"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="14"/>
       <c r="B93" s="15"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="14"/>
       <c r="B94" s="15"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="14"/>
       <c r="B95" s="15"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="14"/>
       <c r="B96" s="15"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="14"/>
       <c r="B97" s="15"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="14"/>
       <c r="B98" s="15"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="14"/>
       <c r="B99" s="15"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="14"/>
       <c r="B100" s="15"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="14"/>
       <c r="B101" s="15"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="14"/>
       <c r="B102" s="15"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="14"/>
       <c r="B103" s="15"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="14"/>
       <c r="B104" s="15"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="14"/>
       <c r="B105" s="15"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="14"/>
       <c r="B106" s="15"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="14"/>
       <c r="B107" s="15"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="14"/>
       <c r="B108" s="15"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="14"/>
       <c r="B109" s="15"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="14"/>
       <c r="B110" s="15"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="14"/>
       <c r="B111" s="15"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="14"/>
       <c r="B112" s="15"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="14"/>
       <c r="B113" s="15"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="14"/>
       <c r="B114" s="15"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="14"/>
       <c r="B115" s="15"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="14"/>
       <c r="B116" s="15"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="14"/>
       <c r="B117" s="15"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="14"/>
       <c r="B118" s="15"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="14"/>
       <c r="B119" s="15"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="14"/>
       <c r="B120" s="15"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="14"/>
       <c r="B121" s="15"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="14"/>
       <c r="B122" s="15"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="14"/>
       <c r="B123" s="15"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="14"/>
       <c r="B124" s="15"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="14"/>
       <c r="B125" s="15"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="14"/>
       <c r="B126" s="15"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="14"/>
       <c r="B127" s="15"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="14"/>
       <c r="B128" s="15"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="14"/>
       <c r="B129" s="15"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="14"/>
       <c r="B130" s="15"/>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="14"/>
       <c r="B131" s="15"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="14"/>
       <c r="B132" s="15"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="14"/>
       <c r="B133" s="15"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="14"/>
       <c r="B134" s="15"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="14"/>
       <c r="B135" s="15"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="14"/>
       <c r="B136" s="15"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="14"/>
       <c r="B137" s="15"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="14"/>
       <c r="B138" s="15"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="14"/>
       <c r="B139" s="15"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="14"/>
       <c r="B140" s="15"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="14"/>
       <c r="B141" s="15"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="14"/>
       <c r="B142" s="15"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="14"/>
       <c r="B143" s="15"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="14"/>
       <c r="B144" s="15"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="14"/>
       <c r="B145" s="15"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="14"/>
       <c r="B146" s="15"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="14"/>
       <c r="B147" s="15"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="14"/>
       <c r="B148" s="15"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="14"/>
       <c r="B149" s="15"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="14"/>
       <c r="B150" s="15"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="14"/>
       <c r="B151" s="15"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="14"/>
       <c r="B152" s="15"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="14"/>
       <c r="B153" s="15"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="14"/>
       <c r="B154" s="15"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="14"/>
       <c r="B155" s="15"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="14"/>
       <c r="B156" s="15"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="14"/>
       <c r="B157" s="15"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="14"/>
       <c r="B158" s="15"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="14"/>
       <c r="B159" s="15"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="14"/>
       <c r="B160" s="15"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="14"/>
       <c r="B161" s="15"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="14"/>
       <c r="B162" s="15"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="14"/>
       <c r="B163" s="15"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="14"/>
       <c r="B164" s="15"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="14"/>
       <c r="B165" s="15"/>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="14"/>
       <c r="B166" s="15"/>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="14"/>
       <c r="B167" s="15"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="14"/>
       <c r="B168" s="15"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="14"/>
       <c r="B169" s="15"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="14"/>
       <c r="B170" s="15"/>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="14"/>
       <c r="B171" s="15"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="14"/>
       <c r="B172" s="15"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="14"/>
       <c r="B173" s="15"/>
       <c r="C173" s="6"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="14"/>
       <c r="B174" s="15"/>
       <c r="C174" s="6"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="14"/>
       <c r="B175" s="15"/>
       <c r="C175" s="6"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="14"/>
       <c r="B176" s="15"/>
       <c r="C176" s="6"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="14"/>
       <c r="B177" s="15"/>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="14"/>
       <c r="B178" s="15"/>
       <c r="C178" s="6"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="14"/>
       <c r="B179" s="15"/>
       <c r="C179" s="6"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="14"/>
       <c r="B180" s="15"/>
       <c r="C180" s="6"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="14"/>
       <c r="B181" s="15"/>
       <c r="C181" s="6"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="14"/>
       <c r="B182" s="15"/>
       <c r="C182" s="6"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="14"/>
       <c r="B183" s="15"/>
       <c r="C183" s="6"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="14"/>
       <c r="B184" s="15"/>
       <c r="C184" s="6"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="14"/>
       <c r="B185" s="15"/>
       <c r="C185" s="6"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
       <c r="C186" s="6"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="14"/>
       <c r="B187" s="15"/>
       <c r="C187" s="6"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="14"/>
       <c r="B188" s="15"/>
       <c r="C188" s="6"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="14"/>
       <c r="B189" s="15"/>
       <c r="C189" s="6"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="14"/>
       <c r="B190" s="15"/>
       <c r="C190" s="6"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="14"/>
       <c r="B191" s="15"/>
       <c r="C191" s="6"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="14"/>
       <c r="B192" s="15"/>
       <c r="C192" s="6"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="14"/>
       <c r="B193" s="15"/>
       <c r="C193" s="6"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="14"/>
       <c r="B194" s="15"/>
       <c r="C194" s="6"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="14"/>
       <c r="B195" s="15"/>
       <c r="C195" s="6"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="14"/>
       <c r="B196" s="15"/>
       <c r="C196" s="6"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="14"/>
       <c r="B197" s="15"/>
       <c r="C197" s="6"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="14"/>
       <c r="B198" s="15"/>
       <c r="C198" s="6"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="14"/>
       <c r="B199" s="15"/>
       <c r="C199" s="6"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="14"/>
       <c r="B200" s="15"/>
       <c r="C200" s="6"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="14"/>
       <c r="B201" s="15"/>
       <c r="C201" s="6"/>
@@ -9450,14 +9450,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.75" style="17" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="20" customWidth="1"/>
     <col min="3" max="3" width="45.75" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -9468,1002 +9468,1002 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="14"/>
       <c r="B37" s="15"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="14"/>
       <c r="B38" s="15"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="14"/>
       <c r="B41" s="15"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="14"/>
       <c r="B44" s="15"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="14"/>
       <c r="B45" s="15"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="14"/>
       <c r="B49" s="15"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="14"/>
       <c r="B50" s="15"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="14"/>
       <c r="B51" s="15"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="14"/>
       <c r="B55" s="15"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="14"/>
       <c r="B56" s="15"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="14"/>
       <c r="B57" s="15"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="14"/>
       <c r="B58" s="15"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="14"/>
       <c r="B59" s="15"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="14"/>
       <c r="B60" s="15"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="14"/>
       <c r="B61" s="15"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="14"/>
       <c r="B62" s="15"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="14"/>
       <c r="B63" s="15"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="14"/>
       <c r="B64" s="15"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="14"/>
       <c r="B65" s="15"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="14"/>
       <c r="B66" s="15"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="14"/>
       <c r="B67" s="15"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="14"/>
       <c r="B68" s="15"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="14"/>
       <c r="B69" s="15"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="14"/>
       <c r="B70" s="15"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="14"/>
       <c r="B71" s="15"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="14"/>
       <c r="B72" s="15"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="14"/>
       <c r="B73" s="15"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="14"/>
       <c r="B74" s="15"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="14"/>
       <c r="B75" s="15"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="14"/>
       <c r="B76" s="15"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="14"/>
       <c r="B77" s="15"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="14"/>
       <c r="B78" s="15"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="14"/>
       <c r="B79" s="15"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="14"/>
       <c r="B80" s="15"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="14"/>
       <c r="B81" s="15"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="14"/>
       <c r="B82" s="15"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="14"/>
       <c r="B83" s="15"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="14"/>
       <c r="B84" s="15"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="14"/>
       <c r="B85" s="15"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="14"/>
       <c r="B86" s="15"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="14"/>
       <c r="B87" s="15"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="14"/>
       <c r="B88" s="15"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="14"/>
       <c r="B89" s="15"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="14"/>
       <c r="B90" s="15"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="14"/>
       <c r="B91" s="15"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="14"/>
       <c r="B92" s="15"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="14"/>
       <c r="B93" s="15"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="14"/>
       <c r="B94" s="15"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="14"/>
       <c r="B95" s="15"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="14"/>
       <c r="B96" s="15"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="14"/>
       <c r="B97" s="15"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="14"/>
       <c r="B98" s="15"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="14"/>
       <c r="B99" s="15"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="14"/>
       <c r="B100" s="15"/>
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="14"/>
       <c r="B101" s="15"/>
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="14"/>
       <c r="B102" s="15"/>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="14"/>
       <c r="B103" s="15"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="14"/>
       <c r="B104" s="15"/>
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="14"/>
       <c r="B105" s="15"/>
       <c r="C105" s="6"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="14"/>
       <c r="B106" s="15"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="14"/>
       <c r="B107" s="15"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="14"/>
       <c r="B108" s="15"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="14"/>
       <c r="B109" s="15"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="14"/>
       <c r="B110" s="15"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="14"/>
       <c r="B111" s="15"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="14"/>
       <c r="B112" s="15"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="14"/>
       <c r="B113" s="15"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="14"/>
       <c r="B114" s="15"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="14"/>
       <c r="B115" s="15"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="14"/>
       <c r="B116" s="15"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="14"/>
       <c r="B117" s="15"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="14"/>
       <c r="B118" s="15"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="14"/>
       <c r="B119" s="15"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="14"/>
       <c r="B120" s="15"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="14"/>
       <c r="B121" s="15"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="14"/>
       <c r="B122" s="15"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="14"/>
       <c r="B123" s="15"/>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="14"/>
       <c r="B124" s="15"/>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="14"/>
       <c r="B125" s="15"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="14"/>
       <c r="B126" s="15"/>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="14"/>
       <c r="B127" s="15"/>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="14"/>
       <c r="B128" s="15"/>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="14"/>
       <c r="B129" s="15"/>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="14"/>
       <c r="B130" s="15"/>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="14"/>
       <c r="B131" s="15"/>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="14"/>
       <c r="B132" s="15"/>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="14"/>
       <c r="B133" s="15"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="14"/>
       <c r="B134" s="15"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="14"/>
       <c r="B135" s="15"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="14"/>
       <c r="B136" s="15"/>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="14"/>
       <c r="B137" s="15"/>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="14"/>
       <c r="B138" s="15"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="14"/>
       <c r="B139" s="15"/>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="14"/>
       <c r="B140" s="15"/>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="14"/>
       <c r="B141" s="15"/>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="14"/>
       <c r="B142" s="15"/>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="14"/>
       <c r="B143" s="15"/>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="14"/>
       <c r="B144" s="15"/>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="14"/>
       <c r="B145" s="15"/>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="14"/>
       <c r="B146" s="15"/>
       <c r="C146" s="6"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="14"/>
       <c r="B147" s="15"/>
       <c r="C147" s="6"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="14"/>
       <c r="B148" s="15"/>
       <c r="C148" s="6"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="14"/>
       <c r="B149" s="15"/>
       <c r="C149" s="6"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="14"/>
       <c r="B150" s="15"/>
       <c r="C150" s="6"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="14"/>
       <c r="B151" s="15"/>
       <c r="C151" s="6"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="14"/>
       <c r="B152" s="15"/>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="14"/>
       <c r="B153" s="15"/>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="14"/>
       <c r="B154" s="15"/>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="14"/>
       <c r="B155" s="15"/>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="14"/>
       <c r="B156" s="15"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="14"/>
       <c r="B157" s="15"/>
       <c r="C157" s="6"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="14"/>
       <c r="B158" s="15"/>
       <c r="C158" s="6"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="14"/>
       <c r="B159" s="15"/>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="14"/>
       <c r="B160" s="15"/>
       <c r="C160" s="6"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="14"/>
       <c r="B161" s="15"/>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="14"/>
       <c r="B162" s="15"/>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="14"/>
       <c r="B163" s="15"/>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="14"/>
       <c r="B164" s="15"/>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="14"/>
       <c r="B165" s="15"/>
       <c r="C165" s="6"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="14"/>
       <c r="B166" s="15"/>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="14"/>
       <c r="B167" s="15"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="14"/>
       <c r="B168" s="15"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="14"/>
       <c r="B169" s="15"/>
       <c r="C169" s="6"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="14"/>
       <c r="B170" s="15"/>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="14"/>
       <c r="B171" s="15"/>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="14"/>
       <c r="B172" s="15"/>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="14"/>
       <c r="B173" s="15"/>
       <c r="C173" s="6"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="14"/>
       <c r="B174" s="15"/>
       <c r="C174" s="6"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="14"/>
       <c r="B175" s="15"/>
       <c r="C175" s="6"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="14"/>
       <c r="B176" s="15"/>
       <c r="C176" s="6"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="14"/>
       <c r="B177" s="15"/>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="14"/>
       <c r="B178" s="15"/>
       <c r="C178" s="6"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="14"/>
       <c r="B179" s="15"/>
       <c r="C179" s="6"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="14"/>
       <c r="B180" s="15"/>
       <c r="C180" s="6"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="14"/>
       <c r="B181" s="15"/>
       <c r="C181" s="6"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="14"/>
       <c r="B182" s="15"/>
       <c r="C182" s="6"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="14"/>
       <c r="B183" s="15"/>
       <c r="C183" s="6"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="14"/>
       <c r="B184" s="15"/>
       <c r="C184" s="6"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="14"/>
       <c r="B185" s="15"/>
       <c r="C185" s="6"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
       <c r="C186" s="6"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="14"/>
       <c r="B187" s="15"/>
       <c r="C187" s="6"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="14"/>
       <c r="B188" s="15"/>
       <c r="C188" s="6"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="14"/>
       <c r="B189" s="15"/>
       <c r="C189" s="6"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="14"/>
       <c r="B190" s="15"/>
       <c r="C190" s="6"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="14"/>
       <c r="B191" s="15"/>
       <c r="C191" s="6"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="14"/>
       <c r="B192" s="15"/>
       <c r="C192" s="6"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="14"/>
       <c r="B193" s="15"/>
       <c r="C193" s="6"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="14"/>
       <c r="B194" s="15"/>
       <c r="C194" s="6"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="14"/>
       <c r="B195" s="15"/>
       <c r="C195" s="6"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="14"/>
       <c r="B196" s="15"/>
       <c r="C196" s="6"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="14"/>
       <c r="B197" s="15"/>
       <c r="C197" s="6"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="14"/>
       <c r="B198" s="15"/>
       <c r="C198" s="6"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="14"/>
       <c r="B199" s="15"/>
       <c r="C199" s="6"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="14"/>
       <c r="B200" s="15"/>
       <c r="C200" s="6"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="14"/>
       <c r="B201" s="15"/>
       <c r="C201" s="6"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93EA537-E32A-4FBB-B8BE-051656D471D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F1E5F2-B31C-43EC-9AB6-7ACBC3AAE419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F1E5F2-B31C-43EC-9AB6-7ACBC3AAE419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F8FBA8-80A8-43EE-99B6-A096BAD68BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="削除" sheetId="2" r:id="rId3"/>
     <sheet name="最新のパッケージに更新" sheetId="5" r:id="rId4"/>
     <sheet name="以前のパッケージにロールバック" sheetId="6" r:id="rId5"/>
+    <sheet name="指定したパッケージに更新" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -127,6 +128,10 @@
   </si>
   <si>
     <t>結果</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パッケージバージョン</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -327,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -374,11 +379,100 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="41">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1268,21 +1362,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:L201" headerRowDxfId="36" dataDxfId="34" totalsRowDxfId="32" headerRowBorderDxfId="35" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:L201" headerRowDxfId="40" dataDxfId="38" totalsRowDxfId="36" headerRowBorderDxfId="39" tableBorderDxfId="37">
   <autoFilter ref="A1:L201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="12">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダーID" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="30"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{B6687083-5003-478E-AAED-DE2CA3FDF2A7}" name="説明" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{28E2D641-5340-4113-9F6E-D4863AB65C09}" name="利用中のパッケージバージョン" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="すべてのパッケージバージョン" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{BF67D0B5-60F7-4CEE-BD11-F0107B63513B}" name="入力引数" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダーID" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="プロセスID" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="プロセス名" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{B6687083-5003-478E-AAED-DE2CA3FDF2A7}" name="説明" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{493CAF5E-88C4-4A0A-B010-8B586A753A71}" name="プロセスキー" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{041C0CE3-E76A-45AF-8F7F-E30A3252DF43}" name="パッケージ名" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{28E2D641-5340-4113-9F6E-D4863AB65C09}" name="利用中のパッケージバージョン" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{497F173B-C30A-4F86-8FDC-635553D40209}" name="すべてのパッケージバージョン" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{BF67D0B5-60F7-4CEE-BD11-F0107B63513B}" name="入力引数" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{F2FC8AF0-A1CD-4EF7-865D-F3BF11667B72}" name="ロボットグループID" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボットグループ名" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1292,15 +1386,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フォルダー名" dataDxfId="19"/>
-    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="パッケージ名" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{055E46AB-EFDA-4315-B5B2-4B84235C38F4}" name="パッケージバージョン" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="プロセス名" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{D19AE82E-DF2B-4BB7-9C7A-9FF78AC9F61B}" name="説明" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{453F806F-ED57-460D-9946-08207735D4E0}" name="入力引数" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="プロセスID" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フォルダー名" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="パッケージ名" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{055E46AB-EFDA-4315-B5B2-4B84235C38F4}" name="パッケージバージョン" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{9E1437B9-DDBD-419B-8B2F-273F9FC29E7B}" name="プロセス名" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{D19AE82E-DF2B-4BB7-9C7A-9FF78AC9F61B}" name="説明" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{453F806F-ED57-460D-9946-08207735D4E0}" name="入力引数" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{63649985-044F-4C3A-9B8C-67083E3A106F}" name="プロセスID" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1310,11 +1404,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="フォルダーID" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="フォルダー名" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="プロセスID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="プロセス名" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="フォルダーID" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="フォルダー名" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="プロセスID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="プロセス名" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1324,9 +1418,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F6D5E497-F7AF-4CA2-8AEA-598B0549C51B}" name="Table135" displayName="Table135" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="5" xr3:uid="{413C03CC-6EE5-4F7C-BCA3-2E8B5592EFDD}" name="フォルダー名" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{40416CDC-A27A-4457-B46A-156FAAF21E90}" name="プロセス名" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{E93D08C1-7BB3-4423-9CD3-0168C81FA605}" name="結果" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{413C03CC-6EE5-4F7C-BCA3-2E8B5592EFDD}" name="フォルダー名" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{40416CDC-A27A-4457-B46A-156FAAF21E90}" name="プロセス名" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{E93D08C1-7BB3-4423-9CD3-0168C81FA605}" name="結果" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1336,9 +1430,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7FCDC37A-F154-4F55-8BD2-2B8B7EE86B58}" name="Table1356" displayName="Table1356" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="5" xr3:uid="{A1B07184-DB53-461B-86B7-F4B8B618283A}" name="フォルダー名" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{2BE80EA8-F793-4070-BD71-D2A062F50D11}" name="プロセス名" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{DCDE4317-7A6B-490B-8F82-83CDFF3C5CCA}" name="結果" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{A1B07184-DB53-461B-86B7-F4B8B618283A}" name="フォルダー名" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{2BE80EA8-F793-4070-BD71-D2A062F50D11}" name="プロセス名" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{DCDE4317-7A6B-490B-8F82-83CDFF3C5CCA}" name="結果" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9BA4F82A-98C9-47B3-9C5B-3F1596A84466}" name="Table13567" displayName="Table13567" ref="A1:D201" totalsRowShown="0">
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="5" xr3:uid="{86383ADD-CEAE-4EBA-BB99-898153A27811}" name="フォルダー名" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7FFF0BC7-8DC0-47BE-B9D4-870199021E74}" name="プロセス名" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A905598C-8031-42F3-8D4E-AA36136571C2}" name="パッケージバージョン" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{EF337724-EC42-4BD2-ADD5-68EFE126E241}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9446,7 +9553,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10476,4 +10583,1244 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E6B955-DC5C-4A3B-93AC-08FEC302FD19}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:D201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="17" customWidth="1"/>
+    <col min="2" max="3" width="25.75" style="20" customWidth="1"/>
+    <col min="4" max="4" width="45.75" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="14"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="14"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="14"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="14"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="14"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="14"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="14"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="14"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="14"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="14"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="14"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="14"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="14"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="14"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="14"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="14"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="14"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="14"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="14"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="14"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="14"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="14"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="14"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="14"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="14"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="14"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="14"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="14"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="14"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="14"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="14"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="14"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="14"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="14"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="14"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="14"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="14"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="14"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="14"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="14"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="14"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" s="14"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" s="14"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" s="14"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" s="14"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="14"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" s="14"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" s="14"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" s="14"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" s="14"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" s="14"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" s="14"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" s="14"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" s="14"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" s="14"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" s="14"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" s="14"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" s="14"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" s="14"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" s="14"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" s="14"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" s="14"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" s="14"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" s="14"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" s="14"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" s="14"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138" s="14"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" s="14"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140" s="14"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141" s="14"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" s="14"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="14"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144" s="14"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145" s="14"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146" s="14"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" s="14"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148" s="14"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" s="14"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150" s="14"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="6"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A151" s="14"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A152" s="14"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153" s="14"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" s="14"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155" s="14"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A156" s="14"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A157" s="14"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158" s="14"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A159" s="14"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A160" s="14"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="6"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161" s="14"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A162" s="14"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" s="14"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="6"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164" s="14"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="6"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" s="14"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A166" s="14"/>
+      <c r="B166" s="15"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="6"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167" s="14"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="6"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A168" s="14"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="6"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169" s="14"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="6"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A170" s="14"/>
+      <c r="B170" s="15"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="6"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A171" s="14"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A172" s="14"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="6"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A173" s="14"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="6"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A174" s="14"/>
+      <c r="B174" s="15"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="6"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175" s="14"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A176" s="14"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="6"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177" s="14"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A178" s="14"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A179" s="14"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A180" s="14"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="6"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181" s="14"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="24"/>
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A182" s="14"/>
+      <c r="B182" s="15"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="6"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A183" s="14"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="6"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A184" s="14"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="6"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185" s="14"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="6"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A186" s="14"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="6"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" s="14"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="6"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A188" s="14"/>
+      <c r="B188" s="15"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="6"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A189" s="14"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="6"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A190" s="14"/>
+      <c r="B190" s="15"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="6"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A191" s="14"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="6"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A192" s="14"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="6"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A193" s="14"/>
+      <c r="B193" s="15"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="6"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A194" s="14"/>
+      <c r="B194" s="15"/>
+      <c r="C194" s="24"/>
+      <c r="D194" s="6"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A195" s="14"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="6"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A196" s="14"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="24"/>
+      <c r="D196" s="6"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197" s="14"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="24"/>
+      <c r="D197" s="6"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198" s="14"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="6"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199" s="14"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="24"/>
+      <c r="D199" s="6"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200" s="14"/>
+      <c r="B200" s="15"/>
+      <c r="C200" s="24"/>
+      <c r="D200" s="6"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A201" s="14"/>
+      <c r="B201" s="15"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F8FBA8-80A8-43EE-99B6-A096BAD68BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741D2867-E3DB-4876-B268-67DF0CC3A1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741D2867-E3DB-4876-B268-67DF0CC3A1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA62026-39F0-46E8-BEE2-3F09CBC3B3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA62026-39F0-46E8-BEE2-3F09CBC3B3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A39715-813A-463A-B864-CDD5E40CA0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A39715-813A-463A-B864-CDD5E40CA0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B746D820-CF75-4FBA-A6D8-B113A4DC549A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/プロセス.xlsx
+++ b/Workbooks/JA/プロセス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B746D820-CF75-4FBA-A6D8-B113A4DC549A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D953EE51-1BC2-4CD0-B083-E54E0C1833F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="3600" windowWidth="21375" windowHeight="9990" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
